--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/EMEA.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/EMEA.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="306">
   <si>
     <t>KG</t>
   </si>
@@ -935,13 +935,25 @@
   </si>
   <si>
     <t>RequestedShipment.RequestedPackageLineItems.SpecialServicesRequested(Repetitions2)</t>
+  </si>
+  <si>
+    <t>HAZARDOUS_MATERIALS</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>123asd789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,8 +1025,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1048,6 +1068,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="62"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,7 +1319,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1427,6 +1453,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1435,6 +1462,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1723,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FE26"/>
+  <dimension ref="A1:FE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CT2" sqref="CT2"/>
+    <sheetView tabSelected="1" topLeftCell="BB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BI26" sqref="BI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,7 +2781,7 @@
       <c r="A3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>152</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -3050,7 +3080,7 @@
       <c r="A4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="48"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="18" t="s">
         <v>145</v>
       </c>
@@ -3381,7 +3411,7 @@
       <c r="A5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B5" s="48"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="18" t="s">
         <v>143</v>
       </c>
@@ -3690,7 +3720,7 @@
       <c r="A6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="18" t="s">
         <v>141</v>
       </c>
@@ -4003,7 +4033,7 @@
       <c r="A7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="18" t="s">
         <v>139</v>
       </c>
@@ -4326,7 +4356,7 @@
       <c r="A8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="18" t="s">
         <v>137</v>
       </c>
@@ -4671,7 +4701,7 @@
       <c r="A9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="18" t="s">
         <v>134</v>
       </c>
@@ -4996,7 +5026,7 @@
       <c r="A10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="18" t="s">
         <v>131</v>
       </c>
@@ -5305,7 +5335,7 @@
       <c r="A11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="18" t="s">
         <v>129</v>
       </c>
@@ -5618,7 +5648,7 @@
       <c r="A12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="18" t="s">
         <v>126</v>
       </c>
@@ -5935,7 +5965,7 @@
       <c r="A13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="18" t="s">
         <v>124</v>
       </c>
@@ -6272,7 +6302,7 @@
       <c r="A14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="48"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="18" t="s">
         <v>121</v>
       </c>
@@ -6383,9 +6413,15 @@
       <c r="BD14" s="16"/>
       <c r="BE14" s="13"/>
       <c r="BF14" s="13"/>
-      <c r="BG14" s="15"/>
-      <c r="BH14" s="15"/>
-      <c r="BI14" s="15"/>
+      <c r="BG14" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="BH14" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI14" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="BJ14" s="13"/>
       <c r="BK14" s="13"/>
       <c r="BL14" s="13"/>
@@ -6575,7 +6611,7 @@
       <c r="A15" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="18" t="s">
         <v>119</v>
       </c>
@@ -6690,9 +6726,15 @@
       <c r="BD15" s="16"/>
       <c r="BE15" s="13"/>
       <c r="BF15" s="13"/>
-      <c r="BG15" s="15"/>
-      <c r="BH15" s="15"/>
-      <c r="BI15" s="15"/>
+      <c r="BG15" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="BH15" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI15" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="BJ15" s="13"/>
       <c r="BK15" s="13"/>
       <c r="BL15" s="13"/>
@@ -6884,7 +6926,7 @@
       <c r="A16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="48"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="18" t="s">
         <v>117</v>
       </c>
@@ -7001,9 +7043,15 @@
       <c r="BD16" s="16"/>
       <c r="BE16" s="13"/>
       <c r="BF16" s="13"/>
-      <c r="BG16" s="15"/>
-      <c r="BH16" s="15"/>
-      <c r="BI16" s="15"/>
+      <c r="BG16" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="BH16" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI16" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="BJ16" s="13"/>
       <c r="BK16" s="13"/>
       <c r="BL16" s="13"/>
@@ -7197,7 +7245,7 @@
       <c r="A17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B17" s="48"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="18" t="s">
         <v>115</v>
       </c>
@@ -7322,9 +7370,15 @@
       <c r="BD17" s="16"/>
       <c r="BE17" s="13"/>
       <c r="BF17" s="13"/>
-      <c r="BG17" s="15"/>
-      <c r="BH17" s="15"/>
-      <c r="BI17" s="15"/>
+      <c r="BG17" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="BH17" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI17" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="BJ17" s="13"/>
       <c r="BK17" s="13"/>
       <c r="BL17" s="13"/>
@@ -7514,7 +7568,7 @@
       <c r="A18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="18" t="s">
         <v>113</v>
       </c>
@@ -7627,9 +7681,15 @@
       <c r="BD18" s="16"/>
       <c r="BE18" s="13"/>
       <c r="BF18" s="13"/>
-      <c r="BG18" s="15"/>
-      <c r="BH18" s="15"/>
-      <c r="BI18" s="15"/>
+      <c r="BG18" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="BH18" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI18" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="BJ18" s="20" t="s">
         <v>109</v>
       </c>
@@ -7676,7 +7736,7 @@
         <v>46</v>
       </c>
       <c r="BY18" s="13" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="BZ18" s="13"/>
       <c r="CA18" s="13"/>
@@ -7851,7 +7911,7 @@
       <c r="A19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B19" s="48"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="18" t="s">
         <v>103</v>
       </c>
@@ -7962,9 +8022,15 @@
       <c r="BD19" s="16"/>
       <c r="BE19" s="13"/>
       <c r="BF19" s="13"/>
-      <c r="BG19" s="15"/>
-      <c r="BH19" s="15"/>
-      <c r="BI19" s="15"/>
+      <c r="BG19" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="BH19" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI19" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="BJ19" s="13"/>
       <c r="BK19" s="13"/>
       <c r="BL19" s="13"/>
@@ -8160,7 +8226,7 @@
       <c r="A20" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B20" s="48"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="18" t="s">
         <v>99</v>
       </c>
@@ -8275,9 +8341,15 @@
       <c r="BD20" s="16"/>
       <c r="BE20" s="13"/>
       <c r="BF20" s="13"/>
-      <c r="BG20" s="15"/>
-      <c r="BH20" s="15"/>
-      <c r="BI20" s="15"/>
+      <c r="BG20" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="BH20" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI20" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="BJ20" s="13"/>
       <c r="BK20" s="13"/>
       <c r="BL20" s="13"/>
@@ -8469,7 +8541,7 @@
       <c r="A21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="48"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="18" t="s">
         <v>95</v>
       </c>
@@ -8586,9 +8658,15 @@
       <c r="BD21" s="16"/>
       <c r="BE21" s="13"/>
       <c r="BF21" s="13"/>
-      <c r="BG21" s="15"/>
-      <c r="BH21" s="15"/>
-      <c r="BI21" s="15"/>
+      <c r="BG21" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="BH21" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI21" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="BJ21" s="13"/>
       <c r="BK21" s="13"/>
       <c r="BL21" s="13"/>
@@ -8782,7 +8860,7 @@
       <c r="A22" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="18" t="s">
         <v>82</v>
       </c>
@@ -8907,9 +8985,15 @@
       <c r="BD22" s="16"/>
       <c r="BE22" s="13"/>
       <c r="BF22" s="13"/>
-      <c r="BG22" s="15"/>
-      <c r="BH22" s="15"/>
-      <c r="BI22" s="15"/>
+      <c r="BG22" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="BH22" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI22" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="BJ22" s="13"/>
       <c r="BK22" s="13"/>
       <c r="BL22" s="13"/>
@@ -9099,7 +9183,7 @@
       <c r="A23" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="48"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="18" t="s">
         <v>73</v>
       </c>
@@ -9232,9 +9316,15 @@
       <c r="BF23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="BG23" s="15"/>
-      <c r="BH23" s="15"/>
-      <c r="BI23" s="15"/>
+      <c r="BG23" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="BH23" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI23" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="BJ23" s="20"/>
       <c r="BK23" s="14"/>
       <c r="BL23" s="20"/>
@@ -9424,7 +9514,7 @@
       <c r="A24" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="48"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="18" t="s">
         <v>63</v>
       </c>
@@ -9767,7 +9857,7 @@
       <c r="A25" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B25" s="48"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="18" t="s">
         <v>53</v>
       </c>
@@ -10055,7 +10145,9 @@
       <c r="EM25" s="12">
         <v>0</v>
       </c>
-      <c r="EN25" s="12"/>
+      <c r="EN25" s="51" t="s">
+        <v>302</v>
+      </c>
       <c r="EO25" s="12" t="s">
         <v>7</v>
       </c>
@@ -10112,7 +10204,7 @@
       <c r="A26" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="49"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="9" t="s">
         <v>43</v>
       </c>
@@ -10223,9 +10315,15 @@
       <c r="BD26" s="8"/>
       <c r="BE26" s="6"/>
       <c r="BF26" s="6"/>
-      <c r="BG26" s="7"/>
-      <c r="BH26" s="7"/>
-      <c r="BI26" s="7"/>
+      <c r="BG26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="BH26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI26" s="15" t="s">
+        <v>305</v>
+      </c>
       <c r="BJ26" s="6"/>
       <c r="BK26" s="6"/>
       <c r="BL26" s="6"/>
@@ -10453,6 +10551,9 @@
         <v>9015551234</v>
       </c>
     </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="47"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:B26"/>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/EMEA.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/EMEA.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="306">
   <si>
     <t>KG</t>
   </si>
@@ -1454,6 +1454,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1462,9 +1465,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1755,63 +1755,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI26" sqref="BI26"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CI14" sqref="CI14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.625" style="1" customWidth="1"/>
-    <col min="4" max="12" width="30.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.75" style="1" customWidth="1"/>
-    <col min="14" max="14" width="30.625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="20.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="30.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="30.5703125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="20.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="15" style="1" customWidth="1"/>
-    <col min="18" max="18" width="30.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="26.375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="20.75" style="1" customWidth="1"/>
-    <col min="23" max="23" width="19.125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.25" style="1" customWidth="1"/>
-    <col min="25" max="25" width="25.125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="20.125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="22.125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="30.75" style="1" customWidth="1"/>
-    <col min="29" max="29" width="25.25" style="1" customWidth="1"/>
-    <col min="30" max="30" width="21.25" style="1" customWidth="1"/>
-    <col min="31" max="31" width="19.25" style="1" customWidth="1"/>
-    <col min="32" max="32" width="23.375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="15.25" style="1" customWidth="1"/>
-    <col min="34" max="34" width="16.125" style="1" customWidth="1"/>
-    <col min="35" max="35" width="27.75" style="1" customWidth="1"/>
-    <col min="36" max="40" width="20.75" style="1" customWidth="1"/>
-    <col min="41" max="41" width="36.25" style="1" customWidth="1"/>
-    <col min="42" max="81" width="20.75" style="1" customWidth="1"/>
-    <col min="82" max="82" width="37.875" style="1" customWidth="1"/>
-    <col min="83" max="122" width="20.75" style="1" customWidth="1"/>
-    <col min="123" max="123" width="13.25" style="1" customWidth="1"/>
-    <col min="124" max="124" width="16.125" style="1" customWidth="1"/>
-    <col min="125" max="139" width="20.75" style="1" customWidth="1"/>
-    <col min="140" max="147" width="30.75" style="1" customWidth="1"/>
-    <col min="148" max="148" width="14.625" style="1" customWidth="1"/>
-    <col min="149" max="149" width="11.875" style="1" customWidth="1"/>
-    <col min="150" max="150" width="13.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.5703125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="25.140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="20.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="30.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="25.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="21.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="19.28515625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="23.42578125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.28515625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="16.140625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="27.7109375" style="1" customWidth="1"/>
+    <col min="36" max="40" width="20.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="36.28515625" style="1" customWidth="1"/>
+    <col min="42" max="81" width="20.7109375" style="1" customWidth="1"/>
+    <col min="82" max="82" width="37.85546875" style="1" customWidth="1"/>
+    <col min="83" max="122" width="20.7109375" style="1" customWidth="1"/>
+    <col min="123" max="123" width="13.28515625" style="1" customWidth="1"/>
+    <col min="124" max="124" width="16.140625" style="1" customWidth="1"/>
+    <col min="125" max="139" width="20.7109375" style="1" customWidth="1"/>
+    <col min="140" max="147" width="30.7109375" style="1" customWidth="1"/>
+    <col min="148" max="148" width="14.5703125" style="1" customWidth="1"/>
+    <col min="149" max="149" width="11.85546875" style="1" customWidth="1"/>
+    <col min="150" max="150" width="13.42578125" style="1" customWidth="1"/>
     <col min="151" max="151" width="13" style="1" customWidth="1"/>
-    <col min="152" max="152" width="14.25" style="1" customWidth="1"/>
-    <col min="153" max="153" width="13.125" style="1" customWidth="1"/>
-    <col min="154" max="154" width="14.5" style="1" customWidth="1"/>
-    <col min="155" max="155" width="13.375" style="1" customWidth="1"/>
+    <col min="152" max="152" width="14.28515625" style="1" customWidth="1"/>
+    <col min="153" max="153" width="13.140625" style="1" customWidth="1"/>
+    <col min="154" max="154" width="14.42578125" style="1" customWidth="1"/>
+    <col min="155" max="155" width="13.42578125" style="1" customWidth="1"/>
     <col min="156" max="156" width="14" style="1" customWidth="1"/>
-    <col min="157" max="157" width="15.75" style="1" customWidth="1"/>
-    <col min="158" max="158" width="17.125" style="1" customWidth="1"/>
+    <col min="157" max="157" width="15.7109375" style="1" customWidth="1"/>
+    <col min="158" max="158" width="17.140625" style="1" customWidth="1"/>
     <col min="159" max="159" width="13" style="1" customWidth="1"/>
-    <col min="160" max="160" width="16.625" style="1" customWidth="1"/>
-    <col min="161" max="162" width="24.375" style="1" customWidth="1"/>
-    <col min="163" max="163" width="30.75" style="1" customWidth="1"/>
-    <col min="164" max="16384" width="9.125" style="1"/>
+    <col min="160" max="160" width="16.5703125" style="1" customWidth="1"/>
+    <col min="161" max="162" width="24.42578125" style="1" customWidth="1"/>
+    <col min="163" max="163" width="30.7109375" style="1" customWidth="1"/>
+    <col min="164" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:161" s="35" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2781,7 +2781,7 @@
       <c r="A3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="49" t="s">
         <v>152</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -3080,7 +3080,7 @@
       <c r="A4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="49"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="18" t="s">
         <v>145</v>
       </c>
@@ -3411,7 +3411,7 @@
       <c r="A5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="18" t="s">
         <v>143</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="A6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="18" t="s">
         <v>141</v>
       </c>
@@ -4033,7 +4033,7 @@
       <c r="A7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="18" t="s">
         <v>139</v>
       </c>
@@ -4177,9 +4177,7 @@
       <c r="BW7" s="14"/>
       <c r="BX7" s="14"/>
       <c r="BY7" s="14"/>
-      <c r="BZ7" s="13" t="s">
-        <v>96</v>
-      </c>
+      <c r="BZ7" s="13"/>
       <c r="CA7" s="14"/>
       <c r="CB7" s="14"/>
       <c r="CC7" s="14"/>
@@ -4192,12 +4190,8 @@
       <c r="CJ7" s="14"/>
       <c r="CK7" s="14"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="CN7" s="14">
-        <v>12345678</v>
-      </c>
+      <c r="CM7" s="14"/>
+      <c r="CN7" s="14"/>
       <c r="CO7" s="14" t="s">
         <v>26</v>
       </c>
@@ -4356,7 +4350,7 @@
       <c r="A8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="18" t="s">
         <v>137</v>
       </c>
@@ -4701,7 +4695,7 @@
       <c r="A9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="18" t="s">
         <v>134</v>
       </c>
@@ -5026,7 +5020,7 @@
       <c r="A10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B10" s="49"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="18" t="s">
         <v>131</v>
       </c>
@@ -5335,7 +5329,7 @@
       <c r="A11" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="18" t="s">
         <v>129</v>
       </c>
@@ -5648,7 +5642,7 @@
       <c r="A12" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B12" s="49"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="18" t="s">
         <v>126</v>
       </c>
@@ -5965,7 +5959,7 @@
       <c r="A13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="18" t="s">
         <v>124</v>
       </c>
@@ -6302,7 +6296,7 @@
       <c r="A14" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="18" t="s">
         <v>121</v>
       </c>
@@ -6611,7 +6605,7 @@
       <c r="A15" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="18" t="s">
         <v>119</v>
       </c>
@@ -6926,7 +6920,7 @@
       <c r="A16" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="18" t="s">
         <v>117</v>
       </c>
@@ -7245,7 +7239,7 @@
       <c r="A17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="18" t="s">
         <v>115</v>
       </c>
@@ -7568,7 +7562,7 @@
       <c r="A18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B18" s="49"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="18" t="s">
         <v>113</v>
       </c>
@@ -7911,7 +7905,7 @@
       <c r="A19" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B19" s="49"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="18" t="s">
         <v>103</v>
       </c>
@@ -8226,7 +8220,7 @@
       <c r="A20" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="18" t="s">
         <v>99</v>
       </c>
@@ -8541,7 +8535,7 @@
       <c r="A21" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B21" s="49"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="18" t="s">
         <v>95</v>
       </c>
@@ -8860,7 +8854,7 @@
       <c r="A22" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="18" t="s">
         <v>82</v>
       </c>
@@ -9183,7 +9177,7 @@
       <c r="A23" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="18" t="s">
         <v>73</v>
       </c>
@@ -9514,7 +9508,7 @@
       <c r="A24" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="18" t="s">
         <v>63</v>
       </c>
@@ -9857,7 +9851,7 @@
       <c r="A25" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B25" s="49"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="18" t="s">
         <v>53</v>
       </c>
@@ -10145,7 +10139,7 @@
       <c r="EM25" s="12">
         <v>0</v>
       </c>
-      <c r="EN25" s="51" t="s">
+      <c r="EN25" s="48" t="s">
         <v>302</v>
       </c>
       <c r="EO25" s="12" t="s">
@@ -10204,7 +10198,7 @@
       <c r="A26" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="50"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="9" t="s">
         <v>43</v>
       </c>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/EMEA.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/EMEA.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="305">
   <si>
     <t>KG</t>
   </si>
@@ -935,9 +935,6 @@
   </si>
   <si>
     <t>RequestedShipment.RequestedPackageLineItems.SpecialServicesRequested(Repetitions2)</t>
-  </si>
-  <si>
-    <t>HAZARDOUS_MATERIALS</t>
   </si>
   <si>
     <t>1</t>
@@ -1755,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CI14" sqref="CI14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4518,7 +4515,9 @@
       <c r="BY8" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="BZ8" s="14"/>
+      <c r="BZ8" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="CA8" s="14"/>
       <c r="CB8" s="14"/>
       <c r="CC8" s="14"/>
@@ -6408,13 +6407,13 @@
       <c r="BE14" s="13"/>
       <c r="BF14" s="13"/>
       <c r="BG14" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH14" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="BH14" s="15" t="s">
+      <c r="BI14" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="BI14" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="BJ14" s="13"/>
       <c r="BK14" s="13"/>
@@ -6721,13 +6720,13 @@
       <c r="BE15" s="13"/>
       <c r="BF15" s="13"/>
       <c r="BG15" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH15" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="BH15" s="15" t="s">
+      <c r="BI15" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="BI15" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="BJ15" s="13"/>
       <c r="BK15" s="13"/>
@@ -7038,13 +7037,13 @@
       <c r="BE16" s="13"/>
       <c r="BF16" s="13"/>
       <c r="BG16" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH16" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="BH16" s="15" t="s">
+      <c r="BI16" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="BI16" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="BJ16" s="13"/>
       <c r="BK16" s="13"/>
@@ -7365,13 +7364,13 @@
       <c r="BE17" s="13"/>
       <c r="BF17" s="13"/>
       <c r="BG17" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH17" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="BH17" s="15" t="s">
+      <c r="BI17" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="BI17" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="BJ17" s="13"/>
       <c r="BK17" s="13"/>
@@ -7676,13 +7675,13 @@
       <c r="BE18" s="13"/>
       <c r="BF18" s="13"/>
       <c r="BG18" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH18" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="BH18" s="15" t="s">
+      <c r="BI18" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="BI18" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="BJ18" s="20" t="s">
         <v>109</v>
@@ -8017,13 +8016,13 @@
       <c r="BE19" s="13"/>
       <c r="BF19" s="13"/>
       <c r="BG19" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH19" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="BH19" s="15" t="s">
+      <c r="BI19" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="BI19" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="BJ19" s="13"/>
       <c r="BK19" s="13"/>
@@ -8336,13 +8335,13 @@
       <c r="BE20" s="13"/>
       <c r="BF20" s="13"/>
       <c r="BG20" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH20" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="BH20" s="15" t="s">
+      <c r="BI20" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="BI20" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="BJ20" s="13"/>
       <c r="BK20" s="13"/>
@@ -8653,13 +8652,13 @@
       <c r="BE21" s="13"/>
       <c r="BF21" s="13"/>
       <c r="BG21" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH21" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="BH21" s="15" t="s">
+      <c r="BI21" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="BI21" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="BJ21" s="13"/>
       <c r="BK21" s="13"/>
@@ -8980,13 +8979,13 @@
       <c r="BE22" s="13"/>
       <c r="BF22" s="13"/>
       <c r="BG22" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH22" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="BH22" s="15" t="s">
+      <c r="BI22" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="BI22" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="BJ22" s="13"/>
       <c r="BK22" s="13"/>
@@ -9311,13 +9310,13 @@
         <v>65</v>
       </c>
       <c r="BG23" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH23" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="BH23" s="15" t="s">
+      <c r="BI23" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="BI23" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="BJ23" s="20"/>
       <c r="BK23" s="14"/>
@@ -9866,7 +9865,7 @@
         <v>41</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="I25" s="15" t="s">
         <v>39</v>
@@ -9962,9 +9961,15 @@
       <c r="BD25" s="16"/>
       <c r="BE25" s="13"/>
       <c r="BF25" s="13"/>
-      <c r="BG25" s="15"/>
-      <c r="BH25" s="15"/>
-      <c r="BI25" s="15"/>
+      <c r="BG25" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH25" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="BI25" s="15" t="s">
+        <v>304</v>
+      </c>
       <c r="BJ25" s="13"/>
       <c r="BK25" s="13"/>
       <c r="BL25" s="13"/>
@@ -10139,9 +10144,7 @@
       <c r="EM25" s="12">
         <v>0</v>
       </c>
-      <c r="EN25" s="48" t="s">
-        <v>302</v>
-      </c>
+      <c r="EN25" s="48"/>
       <c r="EO25" s="12" t="s">
         <v>7</v>
       </c>
@@ -10310,13 +10313,13 @@
       <c r="BE26" s="6"/>
       <c r="BF26" s="6"/>
       <c r="BG26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH26" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="BH26" s="7" t="s">
+      <c r="BI26" s="15" t="s">
         <v>304</v>
-      </c>
-      <c r="BI26" s="15" t="s">
-        <v>305</v>
       </c>
       <c r="BJ26" s="6"/>
       <c r="BK26" s="6"/>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/EMEA.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/EMEA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwinchester\Documents\ShipWorks3x\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\ShipWorks\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,12 +19,12 @@
     <definedName name="_lu1">#REF!</definedName>
     <definedName name="_lu2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="317">
   <si>
     <t>Description</t>
   </si>
@@ -929,9 +929,6 @@
     <t>Intl Priority, Your Packaging, IDG, Dry Ice</t>
   </si>
   <si>
-    <t>Current System Date</t>
-  </si>
-  <si>
     <t>Intl Priority Freight, Your Packaging, HAL</t>
   </si>
   <si>
@@ -969,12 +966,21 @@
   </si>
   <si>
     <t>SaveLabel</t>
+  </si>
+  <si>
+    <t>RequestedShipment.RequestedPackageLineItems.SpecialServicesRequested(Repetitions2)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>123456</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1971,6 +1977,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="13" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1989,7 +1996,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="13" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="383">
     <cellStyle name="Hyperlink 2" xfId="365"/>
@@ -2477,23 +2483,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2529,23 +2518,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2725,8 +2697,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:FH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2774,7 +2746,7 @@
   <sheetData>
     <row r="1" spans="1:164" s="7" customFormat="1" ht="69.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="5" t="s">
@@ -3192,7 +3164,7 @@
         <v>55</v>
       </c>
       <c r="EK1" s="5" t="s">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="EL1" s="5" t="s">
         <v>56</v>
@@ -3264,7 +3236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:164" s="7" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:164" s="7" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="71"/>
       <c r="B2" s="70"/>
       <c r="C2" s="8"/>
@@ -3751,11 +3723,11 @@
       </c>
     </row>
     <row r="3" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="b">
+      <c r="A3" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>311</v>
+      <c r="B3" s="73" t="s">
+        <v>310</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>259</v>
@@ -3766,9 +3738,7 @@
       <c r="E3" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F3" s="16"/>
       <c r="G3" s="16" t="s">
         <v>162</v>
       </c>
@@ -4075,10 +4045,10 @@
       <c r="FH3" s="27"/>
     </row>
     <row r="4" spans="1:164" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="b">
+      <c r="A4" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="73"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="23" t="s">
         <v>222</v>
       </c>
@@ -4088,9 +4058,7 @@
       <c r="E4" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F4" s="16"/>
       <c r="G4" s="29" t="s">
         <v>162</v>
       </c>
@@ -4407,10 +4375,10 @@
       <c r="FH4" s="34"/>
     </row>
     <row r="5" spans="1:164" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="b">
+      <c r="A5" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="73"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="23" t="s">
         <v>291</v>
       </c>
@@ -4420,9 +4388,7 @@
       <c r="E5" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F5" s="16"/>
       <c r="G5" s="29" t="s">
         <v>162</v>
       </c>
@@ -4609,16 +4575,16 @@
         <v>165</v>
       </c>
       <c r="CJ5" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="CK5" s="29" t="s">
         <v>304</v>
-      </c>
-      <c r="CK5" s="29" t="s">
-        <v>305</v>
       </c>
       <c r="CL5" s="29">
         <v>8022</v>
       </c>
       <c r="CM5" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="CN5" s="29" t="s">
         <v>229</v>
@@ -4785,10 +4751,10 @@
       <c r="FH5" s="34"/>
     </row>
     <row r="6" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="b">
+      <c r="A6" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="73"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="23" t="s">
         <v>260</v>
       </c>
@@ -4798,9 +4764,7 @@
       <c r="E6" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
         <v>162</v>
       </c>
@@ -5119,10 +5083,10 @@
       <c r="FH6" s="27"/>
     </row>
     <row r="7" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="b">
+      <c r="A7" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="73"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="23" t="s">
         <v>261</v>
       </c>
@@ -5132,9 +5096,7 @@
       <c r="E7" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
         <v>162</v>
       </c>
@@ -5437,10 +5399,10 @@
       <c r="FH7" s="27"/>
     </row>
     <row r="8" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="b">
+      <c r="A8" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="73"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="23" t="s">
         <v>262</v>
       </c>
@@ -5450,9 +5412,7 @@
       <c r="E8" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
         <v>162</v>
       </c>
@@ -5759,10 +5719,10 @@
       <c r="FH8" s="27"/>
     </row>
     <row r="9" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78" t="b">
+      <c r="A9" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="73"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="23" t="s">
         <v>230</v>
       </c>
@@ -5772,9 +5732,7 @@
       <c r="E9" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F9" s="16"/>
       <c r="G9" s="16" t="s">
         <v>162</v>
       </c>
@@ -6085,10 +6043,10 @@
       <c r="FH9" s="27"/>
     </row>
     <row r="10" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="b">
+      <c r="A10" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="73"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="23" t="s">
         <v>297</v>
       </c>
@@ -6098,9 +6056,7 @@
       <c r="E10" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="16" t="s">
         <v>162</v>
       </c>
@@ -6397,10 +6353,10 @@
       <c r="FH10" s="27"/>
     </row>
     <row r="11" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="b">
+      <c r="A11" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="73"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="23" t="s">
         <v>264</v>
       </c>
@@ -6410,9 +6366,7 @@
       <c r="E11" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F11" s="16"/>
       <c r="G11" s="16" t="s">
         <v>162</v>
       </c>
@@ -6715,10 +6669,10 @@
       <c r="FH11" s="27"/>
     </row>
     <row r="12" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="78" t="b">
+      <c r="A12" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="73"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="23" t="s">
         <v>265</v>
       </c>
@@ -6728,9 +6682,7 @@
       <c r="E12" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F12" s="16"/>
       <c r="G12" s="16" t="s">
         <v>162</v>
       </c>
@@ -7037,12 +6989,12 @@
       <c r="FH12" s="27"/>
     </row>
     <row r="13" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78" t="b">
+      <c r="A13" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B13" s="73"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>140</v>
@@ -7050,9 +7002,7 @@
       <c r="E13" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F13" s="16"/>
       <c r="G13" s="16" t="s">
         <v>162</v>
       </c>
@@ -7363,10 +7313,10 @@
       <c r="FH13" s="27"/>
     </row>
     <row r="14" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="b">
+      <c r="A14" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B14" s="73"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="23" t="s">
         <v>244</v>
       </c>
@@ -7376,9 +7326,7 @@
       <c r="E14" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
         <v>162</v>
       </c>
@@ -7709,10 +7657,10 @@
       <c r="FH14" s="27"/>
     </row>
     <row r="15" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="b">
+      <c r="A15" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B15" s="73"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="23" t="s">
         <v>183</v>
       </c>
@@ -7722,9 +7670,7 @@
       <c r="E15" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F15" s="16"/>
       <c r="G15" s="16" t="s">
         <v>162</v>
       </c>
@@ -8027,10 +7973,10 @@
       <c r="FH15" s="27"/>
     </row>
     <row r="16" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="b">
+      <c r="A16" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B16" s="73"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="23" t="s">
         <v>268</v>
       </c>
@@ -8040,9 +7986,7 @@
       <c r="E16" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F16" s="16"/>
       <c r="G16" s="16" t="s">
         <v>162</v>
       </c>
@@ -8345,10 +8289,10 @@
       <c r="FH16" s="27"/>
     </row>
     <row r="17" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="b">
+      <c r="A17" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B17" s="73"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="23" t="s">
         <v>269</v>
       </c>
@@ -8358,9 +8302,7 @@
       <c r="E17" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F17" s="16"/>
       <c r="G17" s="16" t="s">
         <v>162</v>
       </c>
@@ -8667,10 +8609,10 @@
       <c r="FH17" s="27"/>
     </row>
     <row r="18" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="b">
+      <c r="A18" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B18" s="73"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="23" t="s">
         <v>231</v>
       </c>
@@ -8680,9 +8622,7 @@
       <c r="E18" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F18" s="16"/>
       <c r="G18" s="16" t="s">
         <v>162</v>
       </c>
@@ -8993,12 +8933,12 @@
       <c r="FH18" s="27"/>
     </row>
     <row r="19" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="b">
+      <c r="A19" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B19" s="73"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>140</v>
@@ -9006,9 +8946,7 @@
       <c r="E19" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F19" s="16"/>
       <c r="G19" s="16" t="s">
         <v>162</v>
       </c>
@@ -9327,10 +9265,10 @@
       <c r="FH19" s="27"/>
     </row>
     <row r="20" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="b">
+      <c r="A20" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B20" s="73"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="23" t="s">
         <v>299</v>
       </c>
@@ -9340,9 +9278,7 @@
       <c r="E20" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>301</v>
-      </c>
+      <c r="F20" s="16"/>
       <c r="G20" s="16" t="s">
         <v>162</v>
       </c>
@@ -9679,10 +9615,10 @@
       </c>
     </row>
     <row r="21" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="b">
+      <c r="A21" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="B21" s="74"/>
+      <c r="B21" s="75"/>
       <c r="C21" s="37" t="s">
         <v>300</v>
       </c>
@@ -9692,9 +9628,7 @@
       <c r="E21" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>301</v>
-      </c>
+      <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
         <v>162</v>
       </c>
@@ -10033,11 +9967,11 @@
       </c>
     </row>
     <row r="22" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="b">
+      <c r="A22" s="72" t="b">
         <v>1</v>
       </c>
-      <c r="B22" s="75" t="s">
-        <v>312</v>
+      <c r="B22" s="76" t="s">
+        <v>311</v>
       </c>
       <c r="C22" s="45" t="s">
         <v>270</v>
@@ -10048,9 +9982,7 @@
       <c r="E22" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>301</v>
-      </c>
+      <c r="F22" s="18"/>
       <c r="G22" s="18" t="s">
         <v>162</v>
       </c>
@@ -10155,8 +10087,12 @@
       <c r="BF22" s="18"/>
       <c r="BG22" s="18"/>
       <c r="BH22" s="47"/>
-      <c r="BI22" s="47"/>
-      <c r="BJ22" s="47"/>
+      <c r="BI22" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="BJ22" s="47" t="s">
+        <v>316</v>
+      </c>
       <c r="BK22" s="18"/>
       <c r="BL22" s="18"/>
       <c r="BM22" s="18"/>
@@ -10389,12 +10325,12 @@
       </c>
     </row>
     <row r="23" spans="1:164" s="11" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="b">
+      <c r="A23" s="72" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="77"/>
       <c r="C23" s="53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D23" s="54" t="s">
         <v>140</v>
@@ -10402,14 +10338,12 @@
       <c r="E23" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>301</v>
-      </c>
+      <c r="F23" s="19"/>
       <c r="G23" s="19" t="s">
         <v>162</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I23" s="21" t="s">
         <v>142</v>
@@ -10464,11 +10398,11 @@
         <v>279</v>
       </c>
       <c r="AA23" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AB23" s="19"/>
       <c r="AC23" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AD23" s="19" t="s">
         <v>246</v>
@@ -10701,10 +10635,10 @@
       <c r="FH23" s="56"/>
     </row>
     <row r="24" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="b">
+      <c r="A24" s="72" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="76"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="53" t="s">
         <v>253</v>
       </c>
@@ -10714,9 +10648,7 @@
       <c r="E24" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>301</v>
-      </c>
+      <c r="F24" s="19"/>
       <c r="G24" s="19" t="s">
         <v>162</v>
       </c>
@@ -11007,10 +10939,10 @@
       <c r="FH24" s="56"/>
     </row>
     <row r="25" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78" t="b">
+      <c r="A25" s="72" t="b">
         <v>1</v>
       </c>
-      <c r="B25" s="76"/>
+      <c r="B25" s="77"/>
       <c r="C25" s="53" t="s">
         <v>257</v>
       </c>
@@ -11020,9 +10952,7 @@
       <c r="E25" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>301</v>
-      </c>
+      <c r="F25" s="19"/>
       <c r="G25" s="19" t="s">
         <v>162</v>
       </c>
@@ -11347,10 +11277,10 @@
       <c r="FH25" s="56"/>
     </row>
     <row r="26" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="b">
+      <c r="A26" s="72" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="76"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="53" t="s">
         <v>258</v>
       </c>
@@ -11358,11 +11288,9 @@
         <v>140</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>301</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="F26" s="19"/>
       <c r="G26" s="19" t="s">
         <v>162</v>
       </c>
@@ -11413,7 +11341,7 @@
         <v>164</v>
       </c>
       <c r="X26" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y26" s="19" t="s">
         <v>146</v>
@@ -11665,10 +11593,10 @@
       <c r="FH26" s="56"/>
     </row>
     <row r="27" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78" t="b">
+      <c r="A27" s="72" t="b">
         <v>1</v>
       </c>
-      <c r="B27" s="77"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="59" t="s">
         <v>263</v>
       </c>
@@ -11676,11 +11604,9 @@
         <v>140</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>301</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="F27" s="20"/>
       <c r="G27" s="20" t="s">
         <v>162</v>
       </c>
@@ -11731,7 +11657,7 @@
         <v>164</v>
       </c>
       <c r="X27" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Y27" s="20" t="s">
         <v>146</v>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/EMEA.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/EMEA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="317">
   <si>
     <t>Description</t>
   </si>
@@ -1080,7 +1080,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1132,6 +1132,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1788,7 +1800,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1963,24 +1975,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="13" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="13" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2077,6 +2071,97 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="13" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="16" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="51" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="361" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="14" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="18" xfId="13" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="16" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="361" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="360" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="13" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="383">
     <cellStyle name="Hyperlink 2" xfId="365"/>
@@ -2778,8 +2863,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:FH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CL2" sqref="CL2"/>
+    <sheetView tabSelected="1" topLeftCell="ER1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="FG1" sqref="FG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3807,7 +3892,7 @@
       <c r="A3" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="115" t="s">
         <v>310</v>
       </c>
       <c r="C3" s="22" t="s">
@@ -4125,339 +4210,339 @@
       <c r="FG3" s="23"/>
       <c r="FH3" s="26"/>
     </row>
-    <row r="4" spans="1:164" s="91" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="b">
+    <row r="4" spans="1:164" s="85" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="74" t="b">
         <v>0</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="J4" s="84">
+      <c r="J4" s="78">
         <v>20</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="L4" s="84" t="s">
+      <c r="L4" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="P4" s="84" t="s">
+      <c r="P4" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84">
+      <c r="T4" s="78"/>
+      <c r="U4" s="78">
         <v>81116</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="W4" s="84" t="s">
+      <c r="W4" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="X4" s="83" t="s">
+      <c r="X4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" s="84" t="s">
+      <c r="Y4" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="Z4" s="84" t="s">
+      <c r="Z4" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="AA4" s="84" t="s">
+      <c r="AA4" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="86" t="s">
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="AD4" s="84" t="s">
+      <c r="AD4" s="78" t="s">
         <v>278</v>
       </c>
-      <c r="AE4" s="84" t="s">
+      <c r="AE4" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="AF4" s="84" t="s">
+      <c r="AF4" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="AG4" s="82">
+      <c r="AG4" s="76">
         <v>12345</v>
       </c>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84" t="s">
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84" t="s">
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="AL4" s="84">
+      <c r="AL4" s="78">
         <v>200</v>
       </c>
-      <c r="AM4" s="84" t="s">
+      <c r="AM4" s="78" t="s">
         <v>225</v>
       </c>
-      <c r="AN4" s="84" t="s">
+      <c r="AN4" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="AO4" s="84" t="s">
+      <c r="AO4" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="AP4" s="84" t="s">
+      <c r="AP4" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="84"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="84"/>
-      <c r="BG4" s="84"/>
-      <c r="BH4" s="85"/>
-      <c r="BI4" s="85"/>
-      <c r="BJ4" s="85"/>
-      <c r="BK4" s="84"/>
-      <c r="BL4" s="84"/>
-      <c r="BM4" s="84"/>
-      <c r="BN4" s="84"/>
-      <c r="BO4" s="84"/>
-      <c r="BP4" s="84"/>
-      <c r="BQ4" s="84"/>
-      <c r="BR4" s="84"/>
-      <c r="BS4" s="84"/>
-      <c r="BT4" s="84"/>
-      <c r="BU4" s="84"/>
-      <c r="BV4" s="84"/>
-      <c r="BW4" s="84"/>
-      <c r="BX4" s="84"/>
-      <c r="BY4" s="84"/>
-      <c r="BZ4" s="84"/>
-      <c r="CA4" s="83"/>
-      <c r="CB4" s="84"/>
-      <c r="CC4" s="84"/>
-      <c r="CD4" s="84"/>
-      <c r="CE4" s="84"/>
-      <c r="CF4" s="84"/>
-      <c r="CG4" s="84"/>
-      <c r="CH4" s="84"/>
-      <c r="CI4" s="84"/>
-      <c r="CJ4" s="84"/>
-      <c r="CK4" s="84"/>
-      <c r="CL4" s="84"/>
-      <c r="CM4" s="84"/>
-      <c r="CN4" s="84" t="s">
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="78"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="81"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="78"/>
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="78"/>
+      <c r="BE4" s="82"/>
+      <c r="BF4" s="78"/>
+      <c r="BG4" s="78"/>
+      <c r="BH4" s="79"/>
+      <c r="BI4" s="79"/>
+      <c r="BJ4" s="79"/>
+      <c r="BK4" s="78"/>
+      <c r="BL4" s="78"/>
+      <c r="BM4" s="78"/>
+      <c r="BN4" s="78"/>
+      <c r="BO4" s="78"/>
+      <c r="BP4" s="78"/>
+      <c r="BQ4" s="78"/>
+      <c r="BR4" s="78"/>
+      <c r="BS4" s="78"/>
+      <c r="BT4" s="78"/>
+      <c r="BU4" s="78"/>
+      <c r="BV4" s="78"/>
+      <c r="BW4" s="78"/>
+      <c r="BX4" s="78"/>
+      <c r="BY4" s="78"/>
+      <c r="BZ4" s="78"/>
+      <c r="CA4" s="77"/>
+      <c r="CB4" s="78"/>
+      <c r="CC4" s="78"/>
+      <c r="CD4" s="78"/>
+      <c r="CE4" s="78"/>
+      <c r="CF4" s="78"/>
+      <c r="CG4" s="78"/>
+      <c r="CH4" s="78"/>
+      <c r="CI4" s="78"/>
+      <c r="CJ4" s="78"/>
+      <c r="CK4" s="78"/>
+      <c r="CL4" s="78"/>
+      <c r="CM4" s="78"/>
+      <c r="CN4" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="CO4" s="84">
+      <c r="CO4" s="78">
         <v>12345678</v>
       </c>
-      <c r="CP4" s="84" t="s">
+      <c r="CP4" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="CQ4" s="89" t="s">
+      <c r="CQ4" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="CR4" s="82">
+      <c r="CR4" s="76">
         <v>12345</v>
       </c>
-      <c r="CS4" s="84" t="s">
+      <c r="CS4" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="CT4" s="82" t="s">
+      <c r="CT4" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="CU4" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="CV4" s="82">
-        <v>100</v>
-      </c>
-      <c r="CW4" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="CX4" s="82">
-        <v>100</v>
-      </c>
-      <c r="CY4" s="82" t="s">
+      <c r="CU4" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="CV4" s="76">
+        <v>100</v>
+      </c>
+      <c r="CW4" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="CX4" s="76">
+        <v>100</v>
+      </c>
+      <c r="CY4" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="CZ4" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA4" s="82">
-        <v>100</v>
-      </c>
-      <c r="DB4" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="DC4" s="82">
+      <c r="CZ4" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA4" s="76">
+        <v>100</v>
+      </c>
+      <c r="DB4" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC4" s="76">
         <v>25</v>
       </c>
-      <c r="DD4" s="82" t="s">
+      <c r="DD4" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="DE4" s="82" t="s">
+      <c r="DE4" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="DF4" s="82">
+      <c r="DF4" s="76">
         <v>123456789</v>
       </c>
-      <c r="DG4" s="89" t="s">
+      <c r="DG4" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="DH4" s="82"/>
-      <c r="DI4" s="89">
+      <c r="DH4" s="76"/>
+      <c r="DI4" s="83">
         <v>1</v>
       </c>
-      <c r="DJ4" s="82" t="s">
+      <c r="DJ4" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="DK4" s="84" t="s">
+      <c r="DK4" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="DL4" s="82"/>
-      <c r="DM4" s="82" t="s">
+      <c r="DL4" s="76"/>
+      <c r="DM4" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="DN4" s="84">
+      <c r="DN4" s="78">
         <v>20</v>
       </c>
-      <c r="DO4" s="89">
+      <c r="DO4" s="83">
         <v>1</v>
       </c>
-      <c r="DP4" s="82" t="s">
+      <c r="DP4" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="DQ4" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR4" s="82">
-        <v>100</v>
-      </c>
-      <c r="DS4" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="DT4" s="82">
-        <v>100</v>
-      </c>
-      <c r="DU4" s="82" t="s">
+      <c r="DQ4" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR4" s="76">
+        <v>100</v>
+      </c>
+      <c r="DS4" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT4" s="76">
+        <v>100</v>
+      </c>
+      <c r="DU4" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="DV4" s="84" t="s">
+      <c r="DV4" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="DW4" s="84" t="s">
+      <c r="DW4" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="DX4" s="83">
+      <c r="DX4" s="77">
         <v>1</v>
       </c>
-      <c r="DY4" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="DZ4" s="84">
-        <v>100</v>
-      </c>
-      <c r="EA4" s="84" t="s">
+      <c r="DY4" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="DZ4" s="78">
+        <v>100</v>
+      </c>
+      <c r="EA4" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="EB4" s="84">
+      <c r="EB4" s="78">
         <v>20</v>
       </c>
-      <c r="EC4" s="84">
+      <c r="EC4" s="78">
         <v>20</v>
       </c>
-      <c r="ED4" s="84">
+      <c r="ED4" s="78">
         <v>30</v>
       </c>
-      <c r="EE4" s="84">
+      <c r="EE4" s="78">
         <v>20</v>
       </c>
-      <c r="EF4" s="84" t="s">
+      <c r="EF4" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="EG4" s="84" t="s">
+      <c r="EG4" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="EH4" s="84" t="s">
+      <c r="EH4" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="EI4" s="84"/>
-      <c r="EJ4" s="84"/>
-      <c r="EK4" s="84"/>
-      <c r="EL4" s="84"/>
-      <c r="EM4" s="84"/>
-      <c r="EN4" s="84"/>
-      <c r="EO4" s="84"/>
-      <c r="EP4" s="84"/>
-      <c r="EQ4" s="82"/>
-      <c r="ER4" s="82"/>
-      <c r="ES4" s="82"/>
-      <c r="ET4" s="82"/>
-      <c r="EU4" s="82"/>
-      <c r="EV4" s="82"/>
-      <c r="EW4" s="82"/>
-      <c r="EX4" s="82"/>
-      <c r="EY4" s="82"/>
-      <c r="EZ4" s="82"/>
-      <c r="FA4" s="82"/>
-      <c r="FB4" s="82"/>
-      <c r="FC4" s="82"/>
-      <c r="FD4" s="82"/>
-      <c r="FE4" s="82"/>
-      <c r="FF4" s="82"/>
-      <c r="FG4" s="82"/>
-      <c r="FH4" s="90"/>
+      <c r="EI4" s="78"/>
+      <c r="EJ4" s="78"/>
+      <c r="EK4" s="78"/>
+      <c r="EL4" s="78"/>
+      <c r="EM4" s="78"/>
+      <c r="EN4" s="78"/>
+      <c r="EO4" s="78"/>
+      <c r="EP4" s="78"/>
+      <c r="EQ4" s="76"/>
+      <c r="ER4" s="76"/>
+      <c r="ES4" s="76"/>
+      <c r="ET4" s="76"/>
+      <c r="EU4" s="76"/>
+      <c r="EV4" s="76"/>
+      <c r="EW4" s="76"/>
+      <c r="EX4" s="76"/>
+      <c r="EY4" s="76"/>
+      <c r="EZ4" s="76"/>
+      <c r="FA4" s="76"/>
+      <c r="FB4" s="76"/>
+      <c r="FC4" s="76"/>
+      <c r="FD4" s="76"/>
+      <c r="FE4" s="76"/>
+      <c r="FF4" s="76"/>
+      <c r="FG4" s="76"/>
+      <c r="FH4" s="84"/>
     </row>
     <row r="5" spans="1:164" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="22" t="s">
         <v>291</v>
       </c>
@@ -4833,7 +4918,7 @@
       <c r="A6" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="22" t="s">
         <v>260</v>
       </c>
@@ -5165,7 +5250,7 @@
       <c r="A7" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="B7" s="63"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="22" t="s">
         <v>261</v>
       </c>
@@ -5481,7 +5566,7 @@
       <c r="A8" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="B8" s="63"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="22" t="s">
         <v>262</v>
       </c>
@@ -5801,7 +5886,7 @@
       <c r="A9" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="22" t="s">
         <v>230</v>
       </c>
@@ -6121,3269 +6206,3273 @@
       <c r="FG9" s="23"/>
       <c r="FH9" s="26"/>
     </row>
-    <row r="10" spans="1:164" s="77" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="b">
+    <row r="10" spans="1:164" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="69" t="s">
+      <c r="B10" s="116"/>
+      <c r="C10" s="63" t="s">
         <v>297</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D10" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71" t="s">
+      <c r="F10" s="65"/>
+      <c r="G10" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="72" t="s">
+      <c r="H10" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="65">
         <v>80</v>
       </c>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="L10" s="71" t="s">
+      <c r="L10" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="M10" s="71" t="s">
+      <c r="M10" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="N10" s="71" t="s">
+      <c r="N10" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="P10" s="71" t="s">
+      <c r="P10" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="Q10" s="71" t="s">
+      <c r="Q10" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="R10" s="71" t="s">
+      <c r="R10" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="S10" s="71" t="s">
+      <c r="S10" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71">
+      <c r="T10" s="65"/>
+      <c r="U10" s="65">
         <v>75008</v>
       </c>
-      <c r="V10" s="71" t="s">
+      <c r="V10" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="W10" s="71" t="s">
+      <c r="W10" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="X10" s="71" t="s">
+      <c r="X10" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="Y10" s="71" t="s">
+      <c r="Y10" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="Z10" s="71" t="s">
+      <c r="Z10" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="AA10" s="71" t="s">
+      <c r="AA10" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71">
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65">
         <v>22599</v>
       </c>
-      <c r="AD10" s="71" t="s">
+      <c r="AD10" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="AE10" s="71" t="s">
+      <c r="AE10" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="AF10" s="71" t="s">
+      <c r="AF10" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="AG10" s="70">
+      <c r="AG10" s="64">
         <v>12345</v>
       </c>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="71"/>
-      <c r="AK10" s="71"/>
-      <c r="AL10" s="71"/>
-      <c r="AM10" s="71"/>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="71"/>
-      <c r="AP10" s="71"/>
-      <c r="AQ10" s="71"/>
-      <c r="AR10" s="71"/>
-      <c r="AS10" s="71"/>
-      <c r="AT10" s="71"/>
-      <c r="AU10" s="71"/>
-      <c r="AV10" s="71"/>
-      <c r="AW10" s="71"/>
-      <c r="AX10" s="71"/>
-      <c r="AY10" s="71"/>
-      <c r="AZ10" s="71"/>
-      <c r="BA10" s="71"/>
-      <c r="BB10" s="71"/>
-      <c r="BC10" s="71"/>
-      <c r="BD10" s="71"/>
-      <c r="BE10" s="75"/>
-      <c r="BF10" s="71"/>
-      <c r="BG10" s="71"/>
-      <c r="BH10" s="72"/>
-      <c r="BI10" s="72" t="s">
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="65"/>
+      <c r="AZ10" s="65"/>
+      <c r="BA10" s="65"/>
+      <c r="BB10" s="65"/>
+      <c r="BC10" s="65"/>
+      <c r="BD10" s="65"/>
+      <c r="BE10" s="69"/>
+      <c r="BF10" s="65"/>
+      <c r="BG10" s="65"/>
+      <c r="BH10" s="66"/>
+      <c r="BI10" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="BJ10" s="72" t="s">
+      <c r="BJ10" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="BK10" s="71"/>
-      <c r="BL10" s="71"/>
-      <c r="BM10" s="71"/>
-      <c r="BN10" s="71"/>
-      <c r="BO10" s="71"/>
-      <c r="BP10" s="71"/>
-      <c r="BQ10" s="71"/>
-      <c r="BR10" s="71"/>
-      <c r="BS10" s="71"/>
-      <c r="BT10" s="71"/>
-      <c r="BU10" s="71"/>
-      <c r="BV10" s="71"/>
-      <c r="BW10" s="71"/>
-      <c r="BX10" s="71"/>
-      <c r="BY10" s="71"/>
-      <c r="BZ10" s="71"/>
-      <c r="CA10" s="71"/>
-      <c r="CB10" s="71"/>
-      <c r="CC10" s="71"/>
-      <c r="CD10" s="71"/>
-      <c r="CE10" s="71"/>
-      <c r="CF10" s="71"/>
-      <c r="CG10" s="71"/>
-      <c r="CH10" s="71"/>
-      <c r="CI10" s="71"/>
-      <c r="CJ10" s="71"/>
-      <c r="CK10" s="71"/>
-      <c r="CL10" s="71"/>
-      <c r="CM10" s="71"/>
-      <c r="CN10" s="71"/>
-      <c r="CO10" s="71"/>
-      <c r="CP10" s="71" t="s">
+      <c r="BK10" s="65"/>
+      <c r="BL10" s="65"/>
+      <c r="BM10" s="65"/>
+      <c r="BN10" s="65"/>
+      <c r="BO10" s="65"/>
+      <c r="BP10" s="65"/>
+      <c r="BQ10" s="65"/>
+      <c r="BR10" s="65"/>
+      <c r="BS10" s="65"/>
+      <c r="BT10" s="65"/>
+      <c r="BU10" s="65"/>
+      <c r="BV10" s="65"/>
+      <c r="BW10" s="65"/>
+      <c r="BX10" s="65"/>
+      <c r="BY10" s="65"/>
+      <c r="BZ10" s="65"/>
+      <c r="CA10" s="65"/>
+      <c r="CB10" s="65"/>
+      <c r="CC10" s="65"/>
+      <c r="CD10" s="65"/>
+      <c r="CE10" s="65"/>
+      <c r="CF10" s="65"/>
+      <c r="CG10" s="65"/>
+      <c r="CH10" s="65"/>
+      <c r="CI10" s="65"/>
+      <c r="CJ10" s="65"/>
+      <c r="CK10" s="65"/>
+      <c r="CL10" s="65"/>
+      <c r="CM10" s="65"/>
+      <c r="CN10" s="65"/>
+      <c r="CO10" s="65"/>
+      <c r="CP10" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="CQ10" s="70" t="s">
+      <c r="CQ10" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="CR10" s="70">
+      <c r="CR10" s="64">
         <v>12345</v>
       </c>
-      <c r="CS10" s="71" t="s">
+      <c r="CS10" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="CT10" s="70" t="s">
+      <c r="CT10" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="CU10" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CV10" s="70">
-        <v>100</v>
-      </c>
-      <c r="CW10" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CX10" s="70">
-        <v>100</v>
-      </c>
-      <c r="CY10" s="70" t="s">
+      <c r="CU10" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="CV10" s="64">
+        <v>100</v>
+      </c>
+      <c r="CW10" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="CX10" s="64">
+        <v>100</v>
+      </c>
+      <c r="CY10" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="CZ10" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA10" s="70">
-        <v>100</v>
-      </c>
-      <c r="DB10" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DC10" s="70">
+      <c r="CZ10" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA10" s="64">
+        <v>100</v>
+      </c>
+      <c r="DB10" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC10" s="64">
         <v>25</v>
       </c>
-      <c r="DD10" s="70" t="s">
+      <c r="DD10" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="DE10" s="70" t="s">
+      <c r="DE10" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="DF10" s="70">
+      <c r="DF10" s="64">
         <v>123456789</v>
       </c>
-      <c r="DG10" s="70" t="s">
+      <c r="DG10" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="DH10" s="70"/>
-      <c r="DI10" s="70">
+      <c r="DH10" s="64"/>
+      <c r="DI10" s="64">
         <v>1</v>
       </c>
-      <c r="DJ10" s="70" t="s">
+      <c r="DJ10" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="DK10" s="71" t="s">
+      <c r="DK10" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="DL10" s="70"/>
-      <c r="DM10" s="70" t="s">
+      <c r="DL10" s="64"/>
+      <c r="DM10" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="DN10" s="71">
+      <c r="DN10" s="65">
         <v>80</v>
       </c>
-      <c r="DO10" s="70">
+      <c r="DO10" s="64">
         <v>1</v>
       </c>
-      <c r="DP10" s="70" t="s">
+      <c r="DP10" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="DQ10" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR10" s="70">
-        <v>100</v>
-      </c>
-      <c r="DS10" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DT10" s="70">
-        <v>100</v>
-      </c>
-      <c r="DU10" s="70" t="s">
+      <c r="DQ10" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR10" s="64">
+        <v>100</v>
+      </c>
+      <c r="DS10" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT10" s="64">
+        <v>100</v>
+      </c>
+      <c r="DU10" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="DV10" s="71" t="s">
+      <c r="DV10" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="DW10" s="71" t="s">
+      <c r="DW10" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="DX10" s="71">
+      <c r="DX10" s="65">
         <v>1</v>
       </c>
-      <c r="DY10" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="DZ10" s="71">
-        <v>100</v>
-      </c>
-      <c r="EA10" s="71" t="s">
+      <c r="DY10" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="DZ10" s="65">
+        <v>100</v>
+      </c>
+      <c r="EA10" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="EB10" s="71">
+      <c r="EB10" s="65">
         <v>80</v>
       </c>
-      <c r="EC10" s="71">
+      <c r="EC10" s="65">
         <v>50</v>
       </c>
-      <c r="ED10" s="71">
+      <c r="ED10" s="65">
         <v>60</v>
       </c>
-      <c r="EE10" s="71">
+      <c r="EE10" s="65">
         <v>50</v>
       </c>
-      <c r="EF10" s="71" t="s">
+      <c r="EF10" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="EG10" s="71" t="s">
+      <c r="EG10" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="EH10" s="71" t="s">
+      <c r="EH10" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="EI10" s="71"/>
-      <c r="EJ10" s="71"/>
-      <c r="EK10" s="71"/>
-      <c r="EL10" s="71"/>
-      <c r="EM10" s="71"/>
-      <c r="EN10" s="71"/>
-      <c r="EO10" s="71"/>
-      <c r="EP10" s="71"/>
-      <c r="EQ10" s="70"/>
-      <c r="ER10" s="70"/>
-      <c r="ES10" s="70"/>
-      <c r="ET10" s="70"/>
-      <c r="EU10" s="70"/>
-      <c r="EV10" s="70"/>
-      <c r="EW10" s="70"/>
-      <c r="EX10" s="70"/>
-      <c r="EY10" s="70"/>
-      <c r="EZ10" s="70"/>
-      <c r="FA10" s="70"/>
-      <c r="FB10" s="70"/>
-      <c r="FC10" s="70"/>
-      <c r="FD10" s="70"/>
-      <c r="FE10" s="70"/>
-      <c r="FF10" s="70"/>
-      <c r="FG10" s="70"/>
-      <c r="FH10" s="76"/>
+      <c r="EI10" s="65"/>
+      <c r="EJ10" s="65"/>
+      <c r="EK10" s="65"/>
+      <c r="EL10" s="65"/>
+      <c r="EM10" s="65"/>
+      <c r="EN10" s="65"/>
+      <c r="EO10" s="65"/>
+      <c r="EP10" s="65"/>
+      <c r="EQ10" s="64"/>
+      <c r="ER10" s="64"/>
+      <c r="ES10" s="64"/>
+      <c r="ET10" s="64"/>
+      <c r="EU10" s="64"/>
+      <c r="EV10" s="64"/>
+      <c r="EW10" s="64"/>
+      <c r="EX10" s="64"/>
+      <c r="EY10" s="64"/>
+      <c r="EZ10" s="64"/>
+      <c r="FA10" s="64"/>
+      <c r="FB10" s="64"/>
+      <c r="FC10" s="64"/>
+      <c r="FD10" s="64"/>
+      <c r="FE10" s="64"/>
+      <c r="FF10" s="64"/>
+      <c r="FG10" s="64"/>
+      <c r="FH10" s="70"/>
     </row>
-    <row r="11" spans="1:164" s="77" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="b">
+    <row r="11" spans="1:164" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="69" t="s">
+      <c r="B11" s="116"/>
+      <c r="C11" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71" t="s">
+      <c r="F11" s="65"/>
+      <c r="G11" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="65">
         <v>80</v>
       </c>
-      <c r="K11" s="71" t="s">
+      <c r="K11" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="M11" s="71" t="s">
+      <c r="M11" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="N11" s="71" t="s">
+      <c r="N11" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="O11" s="71" t="s">
+      <c r="O11" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="P11" s="71" t="s">
+      <c r="P11" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="Q11" s="71" t="s">
+      <c r="Q11" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="R11" s="71" t="s">
+      <c r="R11" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="S11" s="71" t="s">
+      <c r="S11" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71">
+      <c r="T11" s="65"/>
+      <c r="U11" s="65">
         <v>44030</v>
       </c>
-      <c r="V11" s="71" t="s">
+      <c r="V11" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="W11" s="71" t="s">
+      <c r="W11" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="X11" s="71" t="s">
+      <c r="X11" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="Y11" s="71" t="s">
+      <c r="Y11" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="Z11" s="71" t="s">
+      <c r="Z11" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="AA11" s="71" t="s">
+      <c r="AA11" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="73" t="s">
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="AD11" s="71" t="s">
+      <c r="AD11" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="AE11" s="71" t="s">
+      <c r="AE11" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="AF11" s="71" t="s">
+      <c r="AF11" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="AG11" s="70">
+      <c r="AG11" s="64">
         <v>12345</v>
       </c>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71" t="s">
+      <c r="AH11" s="65"/>
+      <c r="AI11" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="71"/>
-      <c r="AL11" s="71"/>
-      <c r="AM11" s="71"/>
-      <c r="AN11" s="71"/>
-      <c r="AO11" s="71"/>
-      <c r="AP11" s="71"/>
-      <c r="AQ11" s="71"/>
-      <c r="AR11" s="71"/>
-      <c r="AS11" s="71"/>
-      <c r="AT11" s="71"/>
-      <c r="AU11" s="71"/>
-      <c r="AV11" s="74" t="s">
+      <c r="AJ11" s="65"/>
+      <c r="AK11" s="65"/>
+      <c r="AL11" s="65"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="65"/>
+      <c r="AR11" s="65"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="65"/>
+      <c r="AU11" s="65"/>
+      <c r="AV11" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="AW11" s="71"/>
-      <c r="AX11" s="71"/>
-      <c r="AY11" s="71"/>
-      <c r="AZ11" s="71"/>
-      <c r="BA11" s="71"/>
-      <c r="BB11" s="71"/>
-      <c r="BC11" s="71"/>
-      <c r="BD11" s="71"/>
-      <c r="BE11" s="75"/>
-      <c r="BF11" s="71"/>
-      <c r="BG11" s="71"/>
-      <c r="BH11" s="72"/>
-      <c r="BI11" s="72" t="s">
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="65"/>
+      <c r="AY11" s="65"/>
+      <c r="AZ11" s="65"/>
+      <c r="BA11" s="65"/>
+      <c r="BB11" s="65"/>
+      <c r="BC11" s="65"/>
+      <c r="BD11" s="65"/>
+      <c r="BE11" s="69"/>
+      <c r="BF11" s="65"/>
+      <c r="BG11" s="65"/>
+      <c r="BH11" s="66"/>
+      <c r="BI11" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="BJ11" s="72" t="s">
+      <c r="BJ11" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="BK11" s="71"/>
-      <c r="BL11" s="71"/>
-      <c r="BM11" s="71"/>
-      <c r="BN11" s="71"/>
-      <c r="BO11" s="71"/>
-      <c r="BP11" s="71"/>
-      <c r="BQ11" s="71"/>
-      <c r="BR11" s="71"/>
-      <c r="BS11" s="71"/>
-      <c r="BT11" s="71"/>
-      <c r="BU11" s="71"/>
-      <c r="BV11" s="71"/>
-      <c r="BW11" s="71"/>
-      <c r="BX11" s="71"/>
-      <c r="BY11" s="71"/>
-      <c r="BZ11" s="71"/>
-      <c r="CA11" s="71" t="s">
+      <c r="BK11" s="65"/>
+      <c r="BL11" s="65"/>
+      <c r="BM11" s="65"/>
+      <c r="BN11" s="65"/>
+      <c r="BO11" s="65"/>
+      <c r="BP11" s="65"/>
+      <c r="BQ11" s="65"/>
+      <c r="BR11" s="65"/>
+      <c r="BS11" s="65"/>
+      <c r="BT11" s="65"/>
+      <c r="BU11" s="65"/>
+      <c r="BV11" s="65"/>
+      <c r="BW11" s="65"/>
+      <c r="BX11" s="65"/>
+      <c r="BY11" s="65"/>
+      <c r="BZ11" s="65"/>
+      <c r="CA11" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="CB11" s="71"/>
-      <c r="CC11" s="71"/>
-      <c r="CD11" s="71"/>
-      <c r="CE11" s="71"/>
-      <c r="CF11" s="71"/>
-      <c r="CG11" s="71"/>
-      <c r="CH11" s="71"/>
-      <c r="CI11" s="71"/>
-      <c r="CJ11" s="71"/>
-      <c r="CK11" s="71"/>
-      <c r="CL11" s="71"/>
-      <c r="CM11" s="71"/>
-      <c r="CN11" s="71"/>
-      <c r="CO11" s="71"/>
-      <c r="CP11" s="71" t="s">
+      <c r="CB11" s="65"/>
+      <c r="CC11" s="65"/>
+      <c r="CD11" s="65"/>
+      <c r="CE11" s="65"/>
+      <c r="CF11" s="65"/>
+      <c r="CG11" s="65"/>
+      <c r="CH11" s="65"/>
+      <c r="CI11" s="65"/>
+      <c r="CJ11" s="65"/>
+      <c r="CK11" s="65"/>
+      <c r="CL11" s="65"/>
+      <c r="CM11" s="65"/>
+      <c r="CN11" s="65"/>
+      <c r="CO11" s="65"/>
+      <c r="CP11" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="CQ11" s="70" t="s">
+      <c r="CQ11" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="CR11" s="70">
+      <c r="CR11" s="64">
         <v>12345</v>
       </c>
-      <c r="CS11" s="71" t="s">
+      <c r="CS11" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="CT11" s="70" t="s">
+      <c r="CT11" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="CU11" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CV11" s="70">
-        <v>100</v>
-      </c>
-      <c r="CW11" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CX11" s="70">
-        <v>100</v>
-      </c>
-      <c r="CY11" s="70" t="s">
+      <c r="CU11" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="CV11" s="64">
+        <v>100</v>
+      </c>
+      <c r="CW11" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="CX11" s="64">
+        <v>100</v>
+      </c>
+      <c r="CY11" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="CZ11" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA11" s="70">
-        <v>100</v>
-      </c>
-      <c r="DB11" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DC11" s="70">
+      <c r="CZ11" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA11" s="64">
+        <v>100</v>
+      </c>
+      <c r="DB11" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC11" s="64">
         <v>25</v>
       </c>
-      <c r="DD11" s="70" t="s">
+      <c r="DD11" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="DE11" s="70" t="s">
+      <c r="DE11" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="DF11" s="70">
+      <c r="DF11" s="64">
         <v>123456789</v>
       </c>
-      <c r="DG11" s="70" t="s">
+      <c r="DG11" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="DH11" s="70"/>
-      <c r="DI11" s="70">
+      <c r="DH11" s="64"/>
+      <c r="DI11" s="64">
         <v>1</v>
       </c>
-      <c r="DJ11" s="70" t="s">
+      <c r="DJ11" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="DK11" s="71" t="s">
+      <c r="DK11" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="DL11" s="70"/>
-      <c r="DM11" s="70" t="s">
+      <c r="DL11" s="64"/>
+      <c r="DM11" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="DN11" s="71">
+      <c r="DN11" s="65">
         <v>80</v>
       </c>
-      <c r="DO11" s="70">
+      <c r="DO11" s="64">
         <v>1</v>
       </c>
-      <c r="DP11" s="70" t="s">
+      <c r="DP11" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="DQ11" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR11" s="70">
-        <v>100</v>
-      </c>
-      <c r="DS11" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DT11" s="70">
-        <v>100</v>
-      </c>
-      <c r="DU11" s="70" t="s">
+      <c r="DQ11" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR11" s="64">
+        <v>100</v>
+      </c>
+      <c r="DS11" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT11" s="64">
+        <v>100</v>
+      </c>
+      <c r="DU11" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="DV11" s="71" t="s">
+      <c r="DV11" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="DW11" s="71" t="s">
+      <c r="DW11" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="DX11" s="71">
+      <c r="DX11" s="65">
         <v>1</v>
       </c>
-      <c r="DY11" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="DZ11" s="71">
-        <v>100</v>
-      </c>
-      <c r="EA11" s="71" t="s">
+      <c r="DY11" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="DZ11" s="65">
+        <v>100</v>
+      </c>
+      <c r="EA11" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="EB11" s="71">
+      <c r="EB11" s="65">
         <v>80</v>
       </c>
-      <c r="EC11" s="71">
+      <c r="EC11" s="65">
         <v>50</v>
       </c>
-      <c r="ED11" s="71">
+      <c r="ED11" s="65">
         <v>60</v>
       </c>
-      <c r="EE11" s="71">
+      <c r="EE11" s="65">
         <v>50</v>
       </c>
-      <c r="EF11" s="71" t="s">
+      <c r="EF11" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="EG11" s="71" t="s">
+      <c r="EG11" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="EH11" s="71" t="s">
+      <c r="EH11" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="EI11" s="71"/>
-      <c r="EJ11" s="71"/>
-      <c r="EK11" s="71"/>
-      <c r="EL11" s="71"/>
-      <c r="EM11" s="71"/>
-      <c r="EN11" s="71"/>
-      <c r="EO11" s="71"/>
-      <c r="EP11" s="71"/>
-      <c r="EQ11" s="70"/>
-      <c r="ER11" s="70"/>
-      <c r="ES11" s="70"/>
-      <c r="ET11" s="70"/>
-      <c r="EU11" s="70"/>
-      <c r="EV11" s="70"/>
-      <c r="EW11" s="70"/>
-      <c r="EX11" s="70"/>
-      <c r="EY11" s="70"/>
-      <c r="EZ11" s="70"/>
-      <c r="FA11" s="70"/>
-      <c r="FB11" s="70"/>
-      <c r="FC11" s="70"/>
-      <c r="FD11" s="70"/>
-      <c r="FE11" s="70"/>
-      <c r="FF11" s="70"/>
-      <c r="FG11" s="70"/>
-      <c r="FH11" s="76"/>
+      <c r="EI11" s="65"/>
+      <c r="EJ11" s="65"/>
+      <c r="EK11" s="65"/>
+      <c r="EL11" s="65"/>
+      <c r="EM11" s="65"/>
+      <c r="EN11" s="65"/>
+      <c r="EO11" s="65"/>
+      <c r="EP11" s="65"/>
+      <c r="EQ11" s="64"/>
+      <c r="ER11" s="64"/>
+      <c r="ES11" s="64"/>
+      <c r="ET11" s="64"/>
+      <c r="EU11" s="64"/>
+      <c r="EV11" s="64"/>
+      <c r="EW11" s="64"/>
+      <c r="EX11" s="64"/>
+      <c r="EY11" s="64"/>
+      <c r="EZ11" s="64"/>
+      <c r="FA11" s="64"/>
+      <c r="FB11" s="64"/>
+      <c r="FC11" s="64"/>
+      <c r="FD11" s="64"/>
+      <c r="FE11" s="64"/>
+      <c r="FF11" s="64"/>
+      <c r="FG11" s="64"/>
+      <c r="FH11" s="70"/>
     </row>
-    <row r="12" spans="1:164" s="77" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="b">
+    <row r="12" spans="1:164" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="69" t="s">
+      <c r="B12" s="116"/>
+      <c r="C12" s="63" t="s">
         <v>265</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D12" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71" t="s">
+      <c r="F12" s="65"/>
+      <c r="G12" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="65">
         <v>80</v>
       </c>
-      <c r="K12" s="71" t="s">
+      <c r="K12" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="L12" s="71" t="s">
+      <c r="L12" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="M12" s="71" t="s">
+      <c r="M12" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="N12" s="71" t="s">
+      <c r="N12" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="O12" s="71" t="s">
+      <c r="O12" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="P12" s="71" t="s">
+      <c r="P12" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="Q12" s="71" t="s">
+      <c r="Q12" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="R12" s="71" t="s">
+      <c r="R12" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="S12" s="71" t="s">
+      <c r="S12" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71">
+      <c r="T12" s="65"/>
+      <c r="U12" s="65">
         <v>28070</v>
       </c>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="W12" s="71" t="s">
+      <c r="W12" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="X12" s="71" t="s">
+      <c r="X12" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="Y12" s="71" t="s">
+      <c r="Y12" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="Z12" s="71" t="s">
+      <c r="Z12" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="AA12" s="71" t="s">
+      <c r="AA12" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="AB12" s="71" t="s">
+      <c r="AB12" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="AC12" s="71" t="s">
+      <c r="AC12" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="AD12" s="71" t="s">
+      <c r="AD12" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="AE12" s="71" t="s">
+      <c r="AE12" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="AF12" s="71" t="s">
+      <c r="AF12" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="AG12" s="70">
+      <c r="AG12" s="64">
         <v>12345</v>
       </c>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71" t="s">
+      <c r="AH12" s="65"/>
+      <c r="AI12" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="71"/>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="71"/>
-      <c r="AN12" s="71"/>
-      <c r="AO12" s="71"/>
-      <c r="AP12" s="71"/>
-      <c r="AQ12" s="71"/>
-      <c r="AR12" s="71"/>
-      <c r="AS12" s="71"/>
-      <c r="AT12" s="71"/>
-      <c r="AU12" s="71"/>
-      <c r="AV12" s="74" t="s">
+      <c r="AJ12" s="65"/>
+      <c r="AK12" s="65"/>
+      <c r="AL12" s="65"/>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="AW12" s="71"/>
-      <c r="AX12" s="71"/>
-      <c r="AY12" s="71"/>
-      <c r="AZ12" s="71"/>
-      <c r="BA12" s="71"/>
-      <c r="BB12" s="71"/>
-      <c r="BC12" s="71"/>
-      <c r="BD12" s="71"/>
-      <c r="BE12" s="75"/>
-      <c r="BF12" s="71"/>
-      <c r="BG12" s="71"/>
-      <c r="BH12" s="72"/>
-      <c r="BI12" s="72" t="s">
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="65"/>
+      <c r="AZ12" s="65"/>
+      <c r="BA12" s="65"/>
+      <c r="BB12" s="65"/>
+      <c r="BC12" s="65"/>
+      <c r="BD12" s="65"/>
+      <c r="BE12" s="69"/>
+      <c r="BF12" s="65"/>
+      <c r="BG12" s="65"/>
+      <c r="BH12" s="66"/>
+      <c r="BI12" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="BJ12" s="72" t="s">
+      <c r="BJ12" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="BK12" s="71"/>
-      <c r="BL12" s="71"/>
-      <c r="BM12" s="71"/>
-      <c r="BN12" s="71"/>
-      <c r="BO12" s="71"/>
-      <c r="BP12" s="71"/>
-      <c r="BQ12" s="71"/>
-      <c r="BR12" s="71"/>
-      <c r="BS12" s="71"/>
-      <c r="BT12" s="71"/>
-      <c r="BU12" s="71"/>
-      <c r="BV12" s="71"/>
-      <c r="BW12" s="71"/>
-      <c r="BX12" s="71"/>
-      <c r="BY12" s="71"/>
-      <c r="BZ12" s="71"/>
-      <c r="CA12" s="71" t="s">
+      <c r="BK12" s="65"/>
+      <c r="BL12" s="65"/>
+      <c r="BM12" s="65"/>
+      <c r="BN12" s="65"/>
+      <c r="BO12" s="65"/>
+      <c r="BP12" s="65"/>
+      <c r="BQ12" s="65"/>
+      <c r="BR12" s="65"/>
+      <c r="BS12" s="65"/>
+      <c r="BT12" s="65"/>
+      <c r="BU12" s="65"/>
+      <c r="BV12" s="65"/>
+      <c r="BW12" s="65"/>
+      <c r="BX12" s="65"/>
+      <c r="BY12" s="65"/>
+      <c r="BZ12" s="65"/>
+      <c r="CA12" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="CB12" s="71" t="s">
+      <c r="CB12" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="CC12" s="71"/>
-      <c r="CD12" s="71"/>
-      <c r="CE12" s="71"/>
-      <c r="CF12" s="71"/>
-      <c r="CG12" s="71"/>
-      <c r="CH12" s="71"/>
-      <c r="CI12" s="71"/>
-      <c r="CJ12" s="71"/>
-      <c r="CK12" s="71"/>
-      <c r="CL12" s="71"/>
-      <c r="CM12" s="71"/>
-      <c r="CN12" s="71"/>
-      <c r="CO12" s="71"/>
-      <c r="CP12" s="71" t="s">
+      <c r="CC12" s="65"/>
+      <c r="CD12" s="65"/>
+      <c r="CE12" s="65"/>
+      <c r="CF12" s="65"/>
+      <c r="CG12" s="65"/>
+      <c r="CH12" s="65"/>
+      <c r="CI12" s="65"/>
+      <c r="CJ12" s="65"/>
+      <c r="CK12" s="65"/>
+      <c r="CL12" s="65"/>
+      <c r="CM12" s="65"/>
+      <c r="CN12" s="65"/>
+      <c r="CO12" s="65"/>
+      <c r="CP12" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="CQ12" s="70" t="s">
+      <c r="CQ12" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="CR12" s="70">
+      <c r="CR12" s="64">
         <v>12345</v>
       </c>
-      <c r="CS12" s="71" t="s">
+      <c r="CS12" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="CT12" s="70" t="s">
+      <c r="CT12" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="CU12" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CV12" s="70">
-        <v>100</v>
-      </c>
-      <c r="CW12" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CX12" s="70">
-        <v>100</v>
-      </c>
-      <c r="CY12" s="70" t="s">
+      <c r="CU12" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="CV12" s="64">
+        <v>100</v>
+      </c>
+      <c r="CW12" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="CX12" s="64">
+        <v>100</v>
+      </c>
+      <c r="CY12" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="CZ12" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA12" s="70">
-        <v>100</v>
-      </c>
-      <c r="DB12" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DC12" s="70">
+      <c r="CZ12" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA12" s="64">
+        <v>100</v>
+      </c>
+      <c r="DB12" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC12" s="64">
         <v>25</v>
       </c>
-      <c r="DD12" s="70" t="s">
+      <c r="DD12" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="DE12" s="70" t="s">
+      <c r="DE12" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="DF12" s="70">
+      <c r="DF12" s="64">
         <v>123456789</v>
       </c>
-      <c r="DG12" s="70" t="s">
+      <c r="DG12" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="DH12" s="70"/>
-      <c r="DI12" s="70">
+      <c r="DH12" s="64"/>
+      <c r="DI12" s="64">
         <v>1</v>
       </c>
-      <c r="DJ12" s="70" t="s">
+      <c r="DJ12" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="DK12" s="71" t="s">
+      <c r="DK12" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="DL12" s="70"/>
-      <c r="DM12" s="70" t="s">
+      <c r="DL12" s="64"/>
+      <c r="DM12" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="DN12" s="71">
+      <c r="DN12" s="65">
         <v>80</v>
       </c>
-      <c r="DO12" s="70">
+      <c r="DO12" s="64">
         <v>1</v>
       </c>
-      <c r="DP12" s="70" t="s">
+      <c r="DP12" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="DQ12" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR12" s="70">
-        <v>100</v>
-      </c>
-      <c r="DS12" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DT12" s="70">
-        <v>100</v>
-      </c>
-      <c r="DU12" s="70" t="s">
+      <c r="DQ12" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR12" s="64">
+        <v>100</v>
+      </c>
+      <c r="DS12" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT12" s="64">
+        <v>100</v>
+      </c>
+      <c r="DU12" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="DV12" s="71" t="s">
+      <c r="DV12" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="DW12" s="71" t="s">
+      <c r="DW12" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="DX12" s="71">
+      <c r="DX12" s="65">
         <v>1</v>
       </c>
-      <c r="DY12" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="DZ12" s="71">
-        <v>100</v>
-      </c>
-      <c r="EA12" s="71" t="s">
+      <c r="DY12" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="DZ12" s="65">
+        <v>100</v>
+      </c>
+      <c r="EA12" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="EB12" s="71">
+      <c r="EB12" s="65">
         <v>80</v>
       </c>
-      <c r="EC12" s="71">
+      <c r="EC12" s="65">
         <v>50</v>
       </c>
-      <c r="ED12" s="71">
+      <c r="ED12" s="65">
         <v>60</v>
       </c>
-      <c r="EE12" s="71">
+      <c r="EE12" s="65">
         <v>50</v>
       </c>
-      <c r="EF12" s="71" t="s">
+      <c r="EF12" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="EG12" s="71" t="s">
+      <c r="EG12" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="EH12" s="71" t="s">
+      <c r="EH12" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="EI12" s="71"/>
-      <c r="EJ12" s="71"/>
-      <c r="EK12" s="71"/>
-      <c r="EL12" s="71"/>
-      <c r="EM12" s="71"/>
-      <c r="EN12" s="71"/>
-      <c r="EO12" s="71"/>
-      <c r="EP12" s="71"/>
-      <c r="EQ12" s="70"/>
-      <c r="ER12" s="70"/>
-      <c r="ES12" s="70"/>
-      <c r="ET12" s="70"/>
-      <c r="EU12" s="70"/>
-      <c r="EV12" s="70"/>
-      <c r="EW12" s="70"/>
-      <c r="EX12" s="70"/>
-      <c r="EY12" s="70"/>
-      <c r="EZ12" s="70"/>
-      <c r="FA12" s="70"/>
-      <c r="FB12" s="70"/>
-      <c r="FC12" s="70"/>
-      <c r="FD12" s="70"/>
-      <c r="FE12" s="70"/>
-      <c r="FF12" s="70"/>
-      <c r="FG12" s="70"/>
-      <c r="FH12" s="76"/>
+      <c r="EI12" s="65"/>
+      <c r="EJ12" s="65"/>
+      <c r="EK12" s="65"/>
+      <c r="EL12" s="65"/>
+      <c r="EM12" s="65"/>
+      <c r="EN12" s="65"/>
+      <c r="EO12" s="65"/>
+      <c r="EP12" s="65"/>
+      <c r="EQ12" s="64"/>
+      <c r="ER12" s="64"/>
+      <c r="ES12" s="64"/>
+      <c r="ET12" s="64"/>
+      <c r="EU12" s="64"/>
+      <c r="EV12" s="64"/>
+      <c r="EW12" s="64"/>
+      <c r="EX12" s="64"/>
+      <c r="EY12" s="64"/>
+      <c r="EZ12" s="64"/>
+      <c r="FA12" s="64"/>
+      <c r="FB12" s="64"/>
+      <c r="FC12" s="64"/>
+      <c r="FD12" s="64"/>
+      <c r="FE12" s="64"/>
+      <c r="FF12" s="64"/>
+      <c r="FG12" s="64"/>
+      <c r="FH12" s="70"/>
     </row>
-    <row r="13" spans="1:164" s="77" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="b">
+    <row r="13" spans="1:164" s="130" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="121" t="b">
         <v>0</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="69" t="s">
+      <c r="B13" s="116"/>
+      <c r="C13" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="D13" s="70" t="s">
+      <c r="D13" s="123" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71" t="s">
+      <c r="F13" s="124"/>
+      <c r="G13" s="124" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="125" t="s">
         <v>232</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="125" t="s">
         <v>142</v>
       </c>
-      <c r="J13" s="71">
+      <c r="J13" s="124">
         <v>80</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="L13" s="71" t="s">
+      <c r="L13" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="M13" s="71" t="s">
+      <c r="M13" s="124" t="s">
         <v>143</v>
       </c>
-      <c r="N13" s="71" t="s">
+      <c r="N13" s="124" t="s">
         <v>144</v>
       </c>
-      <c r="O13" s="71" t="s">
+      <c r="O13" s="124" t="s">
         <v>145</v>
       </c>
-      <c r="P13" s="71" t="s">
+      <c r="P13" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="Q13" s="71" t="s">
+      <c r="Q13" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="R13" s="71" t="s">
+      <c r="R13" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="S13" s="71" t="s">
+      <c r="S13" s="124" t="s">
         <v>296</v>
       </c>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71">
+      <c r="T13" s="124"/>
+      <c r="U13" s="124">
         <v>75008</v>
       </c>
-      <c r="V13" s="71" t="s">
+      <c r="V13" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="W13" s="71" t="s">
+      <c r="W13" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="X13" s="71" t="s">
+      <c r="X13" s="124" t="s">
         <v>207</v>
       </c>
-      <c r="Y13" s="71" t="s">
+      <c r="Y13" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="Z13" s="71" t="s">
+      <c r="Z13" s="124" t="s">
         <v>271</v>
       </c>
-      <c r="AA13" s="71" t="s">
+      <c r="AA13" s="124" t="s">
         <v>275</v>
       </c>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71">
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="124">
         <v>22599</v>
       </c>
-      <c r="AD13" s="71" t="s">
+      <c r="AD13" s="124" t="s">
         <v>272</v>
       </c>
-      <c r="AE13" s="71" t="s">
+      <c r="AE13" s="124" t="s">
         <v>148</v>
       </c>
-      <c r="AF13" s="71" t="s">
+      <c r="AF13" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="AG13" s="70">
+      <c r="AG13" s="123">
         <v>12345</v>
       </c>
-      <c r="AH13" s="78"/>
-      <c r="AI13" s="78" t="s">
+      <c r="AH13" s="126"/>
+      <c r="AI13" s="126" t="s">
         <v>223</v>
       </c>
-      <c r="AJ13" s="71"/>
-      <c r="AK13" s="78" t="s">
+      <c r="AJ13" s="124"/>
+      <c r="AK13" s="126" t="s">
         <v>224</v>
       </c>
-      <c r="AL13" s="71">
+      <c r="AL13" s="124">
         <v>200</v>
       </c>
-      <c r="AM13" s="78" t="s">
+      <c r="AM13" s="126" t="s">
         <v>225</v>
       </c>
-      <c r="AN13" s="78" t="s">
+      <c r="AN13" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="AO13" s="78" t="s">
+      <c r="AO13" s="126" t="s">
         <v>227</v>
       </c>
-      <c r="AP13" s="78" t="s">
+      <c r="AP13" s="126" t="s">
         <v>228</v>
       </c>
-      <c r="AQ13" s="71"/>
-      <c r="AR13" s="71"/>
-      <c r="AS13" s="71"/>
-      <c r="AT13" s="71"/>
-      <c r="AU13" s="71"/>
-      <c r="AV13" s="74"/>
-      <c r="AW13" s="71"/>
-      <c r="AX13" s="71"/>
-      <c r="AY13" s="71"/>
-      <c r="AZ13" s="71"/>
-      <c r="BA13" s="71"/>
-      <c r="BB13" s="71"/>
-      <c r="BC13" s="71"/>
-      <c r="BD13" s="71"/>
-      <c r="BE13" s="75"/>
-      <c r="BF13" s="71"/>
-      <c r="BG13" s="71"/>
-      <c r="BH13" s="72"/>
-      <c r="BI13" s="72" t="s">
+      <c r="AQ13" s="124"/>
+      <c r="AR13" s="124"/>
+      <c r="AS13" s="124"/>
+      <c r="AT13" s="124"/>
+      <c r="AU13" s="124"/>
+      <c r="AV13" s="127"/>
+      <c r="AW13" s="124"/>
+      <c r="AX13" s="124"/>
+      <c r="AY13" s="124"/>
+      <c r="AZ13" s="124"/>
+      <c r="BA13" s="124"/>
+      <c r="BB13" s="124"/>
+      <c r="BC13" s="124"/>
+      <c r="BD13" s="124"/>
+      <c r="BE13" s="128"/>
+      <c r="BF13" s="124"/>
+      <c r="BG13" s="124"/>
+      <c r="BH13" s="125"/>
+      <c r="BI13" s="125" t="s">
         <v>315</v>
       </c>
-      <c r="BJ13" s="72" t="s">
+      <c r="BJ13" s="125" t="s">
         <v>316</v>
       </c>
-      <c r="BK13" s="71"/>
-      <c r="BL13" s="71"/>
-      <c r="BM13" s="71"/>
-      <c r="BN13" s="71"/>
-      <c r="BO13" s="71"/>
-      <c r="BP13" s="71"/>
-      <c r="BQ13" s="71"/>
-      <c r="BR13" s="71"/>
-      <c r="BS13" s="71"/>
-      <c r="BT13" s="71"/>
-      <c r="BU13" s="71"/>
-      <c r="BV13" s="71"/>
-      <c r="BW13" s="71"/>
-      <c r="BX13" s="71"/>
-      <c r="BY13" s="71"/>
-      <c r="BZ13" s="71"/>
-      <c r="CA13" s="71"/>
-      <c r="CB13" s="71"/>
-      <c r="CC13" s="71"/>
-      <c r="CD13" s="71"/>
-      <c r="CE13" s="71"/>
-      <c r="CF13" s="71"/>
-      <c r="CG13" s="71"/>
-      <c r="CH13" s="71"/>
-      <c r="CI13" s="71"/>
-      <c r="CJ13" s="71"/>
-      <c r="CK13" s="71"/>
-      <c r="CL13" s="71"/>
-      <c r="CM13" s="71"/>
-      <c r="CN13" s="71"/>
-      <c r="CO13" s="71"/>
-      <c r="CP13" s="71" t="s">
+      <c r="BK13" s="124"/>
+      <c r="BL13" s="124"/>
+      <c r="BM13" s="124"/>
+      <c r="BN13" s="124"/>
+      <c r="BO13" s="124"/>
+      <c r="BP13" s="124"/>
+      <c r="BQ13" s="124"/>
+      <c r="BR13" s="124"/>
+      <c r="BS13" s="124"/>
+      <c r="BT13" s="124"/>
+      <c r="BU13" s="124"/>
+      <c r="BV13" s="124"/>
+      <c r="BW13" s="124"/>
+      <c r="BX13" s="124"/>
+      <c r="BY13" s="124"/>
+      <c r="BZ13" s="124"/>
+      <c r="CA13" s="124"/>
+      <c r="CB13" s="124"/>
+      <c r="CC13" s="124"/>
+      <c r="CD13" s="124"/>
+      <c r="CE13" s="124"/>
+      <c r="CF13" s="124"/>
+      <c r="CG13" s="124"/>
+      <c r="CH13" s="124"/>
+      <c r="CI13" s="124"/>
+      <c r="CJ13" s="124"/>
+      <c r="CK13" s="124"/>
+      <c r="CL13" s="124"/>
+      <c r="CM13" s="124"/>
+      <c r="CN13" s="124"/>
+      <c r="CO13" s="124"/>
+      <c r="CP13" s="124" t="s">
         <v>148</v>
       </c>
-      <c r="CQ13" s="70" t="s">
+      <c r="CQ13" s="123" t="s">
         <v>288</v>
       </c>
-      <c r="CR13" s="70">
+      <c r="CR13" s="123">
         <v>12345</v>
       </c>
-      <c r="CS13" s="71" t="s">
+      <c r="CS13" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="CT13" s="70" t="s">
+      <c r="CT13" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="CU13" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CV13" s="70">
-        <v>100</v>
-      </c>
-      <c r="CW13" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CX13" s="70">
-        <v>100</v>
-      </c>
-      <c r="CY13" s="70" t="s">
+      <c r="CU13" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="CV13" s="123">
+        <v>100</v>
+      </c>
+      <c r="CW13" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="CX13" s="123">
+        <v>100</v>
+      </c>
+      <c r="CY13" s="123" t="s">
         <v>152</v>
       </c>
-      <c r="CZ13" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA13" s="70">
-        <v>100</v>
-      </c>
-      <c r="DB13" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DC13" s="70">
+      <c r="CZ13" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA13" s="123">
+        <v>100</v>
+      </c>
+      <c r="DB13" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC13" s="123">
         <v>25</v>
       </c>
-      <c r="DD13" s="70" t="s">
+      <c r="DD13" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="DE13" s="70" t="s">
+      <c r="DE13" s="123" t="s">
         <v>154</v>
       </c>
-      <c r="DF13" s="70">
+      <c r="DF13" s="123">
         <v>123456789</v>
       </c>
-      <c r="DG13" s="70" t="s">
+      <c r="DG13" s="123" t="s">
         <v>276</v>
       </c>
-      <c r="DH13" s="70"/>
-      <c r="DI13" s="70">
+      <c r="DH13" s="123"/>
+      <c r="DI13" s="123">
         <v>1</v>
       </c>
-      <c r="DJ13" s="70" t="s">
+      <c r="DJ13" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="DK13" s="71" t="s">
+      <c r="DK13" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="DL13" s="70"/>
-      <c r="DM13" s="70" t="s">
+      <c r="DL13" s="123"/>
+      <c r="DM13" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="DN13" s="71">
+      <c r="DN13" s="124">
         <v>80</v>
       </c>
-      <c r="DO13" s="70">
+      <c r="DO13" s="123">
         <v>1</v>
       </c>
-      <c r="DP13" s="70" t="s">
+      <c r="DP13" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="DQ13" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR13" s="70">
-        <v>100</v>
-      </c>
-      <c r="DS13" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DT13" s="70">
-        <v>100</v>
-      </c>
-      <c r="DU13" s="70" t="s">
+      <c r="DQ13" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR13" s="123">
+        <v>100</v>
+      </c>
+      <c r="DS13" s="123" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT13" s="123">
+        <v>100</v>
+      </c>
+      <c r="DU13" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="DV13" s="71" t="s">
+      <c r="DV13" s="124" t="s">
         <v>158</v>
       </c>
-      <c r="DW13" s="71" t="s">
+      <c r="DW13" s="124" t="s">
         <v>159</v>
       </c>
-      <c r="DX13" s="71">
+      <c r="DX13" s="124">
         <v>1</v>
       </c>
-      <c r="DY13" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="DZ13" s="71">
-        <v>100</v>
-      </c>
-      <c r="EA13" s="71" t="s">
+      <c r="DY13" s="124" t="s">
+        <v>151</v>
+      </c>
+      <c r="DZ13" s="124">
+        <v>100</v>
+      </c>
+      <c r="EA13" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="EB13" s="71">
+      <c r="EB13" s="124">
         <v>80</v>
       </c>
-      <c r="EC13" s="71">
+      <c r="EC13" s="124">
         <v>50</v>
       </c>
-      <c r="ED13" s="71">
+      <c r="ED13" s="124">
         <v>60</v>
       </c>
-      <c r="EE13" s="71">
+      <c r="EE13" s="124">
         <v>50</v>
       </c>
-      <c r="EF13" s="71" t="s">
+      <c r="EF13" s="124" t="s">
         <v>161</v>
       </c>
-      <c r="EG13" s="71" t="s">
+      <c r="EG13" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="EH13" s="71" t="s">
+      <c r="EH13" s="124" t="s">
         <v>149</v>
       </c>
-      <c r="EI13" s="71"/>
-      <c r="EJ13" s="71"/>
-      <c r="EK13" s="71"/>
-      <c r="EL13" s="71"/>
-      <c r="EM13" s="71"/>
-      <c r="EN13" s="71"/>
-      <c r="EO13" s="71"/>
-      <c r="EP13" s="71"/>
-      <c r="EQ13" s="70"/>
-      <c r="ER13" s="70"/>
-      <c r="ES13" s="70"/>
-      <c r="ET13" s="70"/>
-      <c r="EU13" s="70"/>
-      <c r="EV13" s="70"/>
-      <c r="EW13" s="70"/>
-      <c r="EX13" s="70"/>
-      <c r="EY13" s="70"/>
-      <c r="EZ13" s="70"/>
-      <c r="FA13" s="70"/>
-      <c r="FB13" s="70"/>
-      <c r="FC13" s="70"/>
-      <c r="FD13" s="70"/>
-      <c r="FE13" s="70"/>
-      <c r="FF13" s="70"/>
-      <c r="FG13" s="70"/>
-      <c r="FH13" s="76"/>
+      <c r="EI13" s="124"/>
+      <c r="EJ13" s="124"/>
+      <c r="EK13" s="124"/>
+      <c r="EL13" s="124"/>
+      <c r="EM13" s="124"/>
+      <c r="EN13" s="124"/>
+      <c r="EO13" s="124"/>
+      <c r="EP13" s="124"/>
+      <c r="EQ13" s="123"/>
+      <c r="ER13" s="123"/>
+      <c r="ES13" s="123"/>
+      <c r="ET13" s="123"/>
+      <c r="EU13" s="123"/>
+      <c r="EV13" s="123"/>
+      <c r="EW13" s="123"/>
+      <c r="EX13" s="123"/>
+      <c r="EY13" s="123"/>
+      <c r="EZ13" s="123"/>
+      <c r="FA13" s="123"/>
+      <c r="FB13" s="123"/>
+      <c r="FC13" s="123"/>
+      <c r="FD13" s="123"/>
+      <c r="FE13" s="123"/>
+      <c r="FF13" s="123"/>
+      <c r="FG13" s="123"/>
+      <c r="FH13" s="129"/>
     </row>
-    <row r="14" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="b">
+    <row r="14" spans="1:164" s="109" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="98" t="b">
         <v>0</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="116"/>
+      <c r="C14" s="99" t="s">
         <v>244</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="101"/>
+      <c r="G14" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="102" t="s">
         <v>232</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="102" t="s">
         <v>142</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="101">
         <v>80</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="O14" s="16" t="s">
+      <c r="O14" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="P14" s="16" t="s">
+      <c r="P14" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="Q14" s="16" t="s">
+      <c r="Q14" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="R14" s="16" t="s">
+      <c r="R14" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="S14" s="101" t="s">
         <v>294</v>
       </c>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16">
+      <c r="T14" s="101"/>
+      <c r="U14" s="101">
         <v>11349</v>
       </c>
-      <c r="V14" s="16" t="s">
+      <c r="V14" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="W14" s="16" t="s">
+      <c r="W14" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="X14" s="16" t="s">
+      <c r="X14" s="101" t="s">
         <v>208</v>
       </c>
-      <c r="Y14" s="16" t="s">
+      <c r="Y14" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="Z14" s="16" t="s">
+      <c r="Z14" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="AA14" s="16" t="s">
+      <c r="AA14" s="101" t="s">
         <v>277</v>
       </c>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="24" t="s">
+      <c r="AB14" s="101"/>
+      <c r="AC14" s="103" t="s">
         <v>282</v>
       </c>
-      <c r="AD14" s="16" t="s">
+      <c r="AD14" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="AE14" s="16" t="s">
+      <c r="AE14" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="AF14" s="16" t="s">
+      <c r="AF14" s="101" t="s">
         <v>171</v>
       </c>
-      <c r="AG14" s="23">
+      <c r="AG14" s="100">
         <v>12345</v>
       </c>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28"/>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="28"/>
-      <c r="AQ14" s="16"/>
-      <c r="AR14" s="16"/>
-      <c r="AS14" s="16"/>
-      <c r="AT14" s="16"/>
-      <c r="AU14" s="16"/>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="16"/>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="16"/>
-      <c r="AZ14" s="16"/>
-      <c r="BA14" s="16"/>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="16"/>
-      <c r="BD14" s="16"/>
-      <c r="BE14" s="15"/>
-      <c r="BF14" s="16"/>
-      <c r="BG14" s="16"/>
-      <c r="BH14" s="14"/>
-      <c r="BI14" s="14" t="s">
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="104" t="s">
+        <v>239</v>
+      </c>
+      <c r="AJ14" s="101"/>
+      <c r="AK14" s="104"/>
+      <c r="AL14" s="101"/>
+      <c r="AM14" s="104"/>
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="104"/>
+      <c r="AP14" s="104"/>
+      <c r="AQ14" s="101"/>
+      <c r="AR14" s="101"/>
+      <c r="AS14" s="101"/>
+      <c r="AT14" s="101"/>
+      <c r="AU14" s="101"/>
+      <c r="AV14" s="105"/>
+      <c r="AW14" s="101"/>
+      <c r="AX14" s="101"/>
+      <c r="AY14" s="101"/>
+      <c r="AZ14" s="101"/>
+      <c r="BA14" s="101"/>
+      <c r="BB14" s="101"/>
+      <c r="BC14" s="101"/>
+      <c r="BD14" s="101"/>
+      <c r="BE14" s="106"/>
+      <c r="BF14" s="101"/>
+      <c r="BG14" s="101"/>
+      <c r="BH14" s="102"/>
+      <c r="BI14" s="102" t="s">
         <v>315</v>
       </c>
-      <c r="BJ14" s="14" t="s">
+      <c r="BJ14" s="102" t="s">
         <v>316</v>
       </c>
-      <c r="BK14" s="32" t="s">
+      <c r="BK14" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="BL14" s="28"/>
-      <c r="BM14" s="32" t="s">
+      <c r="BL14" s="104"/>
+      <c r="BM14" s="107" t="s">
         <v>143</v>
       </c>
-      <c r="BN14" s="32">
+      <c r="BN14" s="107">
         <v>1234567890</v>
       </c>
-      <c r="BO14" s="32">
+      <c r="BO14" s="107">
         <v>12345</v>
       </c>
-      <c r="BP14" s="28" t="s">
+      <c r="BP14" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="BQ14" s="32" t="s">
+      <c r="BQ14" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="BR14" s="32" t="s">
+      <c r="BR14" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="BS14" s="32">
+      <c r="BS14" s="107">
         <v>8975898616</v>
       </c>
-      <c r="BT14" s="32">
+      <c r="BT14" s="107">
         <v>3293</v>
       </c>
-      <c r="BU14" s="28" t="s">
+      <c r="BU14" s="104" t="s">
         <v>243</v>
       </c>
-      <c r="BV14" s="16" t="s">
+      <c r="BV14" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="BW14" s="16" t="s">
+      <c r="BW14" s="101" t="s">
         <v>277</v>
       </c>
-      <c r="BX14" s="16" t="s">
+      <c r="BX14" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="BY14" s="24" t="s">
+      <c r="BY14" s="103" t="s">
         <v>282</v>
       </c>
-      <c r="BZ14" s="16" t="s">
+      <c r="BZ14" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="CA14" s="16"/>
-      <c r="CB14" s="16"/>
-      <c r="CC14" s="16"/>
-      <c r="CD14" s="16"/>
-      <c r="CE14" s="16"/>
-      <c r="CF14" s="16"/>
-      <c r="CG14" s="16"/>
-      <c r="CH14" s="16"/>
-      <c r="CI14" s="16"/>
-      <c r="CJ14" s="16"/>
-      <c r="CK14" s="16"/>
-      <c r="CL14" s="16"/>
-      <c r="CM14" s="16"/>
-      <c r="CN14" s="16"/>
-      <c r="CO14" s="16"/>
-      <c r="CP14" s="16" t="s">
+      <c r="CA14" s="101"/>
+      <c r="CB14" s="101"/>
+      <c r="CC14" s="101"/>
+      <c r="CD14" s="101"/>
+      <c r="CE14" s="101"/>
+      <c r="CF14" s="101"/>
+      <c r="CG14" s="101"/>
+      <c r="CH14" s="101"/>
+      <c r="CI14" s="101"/>
+      <c r="CJ14" s="101"/>
+      <c r="CK14" s="101"/>
+      <c r="CL14" s="101"/>
+      <c r="CM14" s="101"/>
+      <c r="CN14" s="101"/>
+      <c r="CO14" s="101"/>
+      <c r="CP14" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="CQ14" s="23" t="s">
+      <c r="CQ14" s="100" t="s">
         <v>288</v>
       </c>
-      <c r="CR14" s="23">
+      <c r="CR14" s="100">
         <v>12345</v>
       </c>
-      <c r="CS14" s="16" t="s">
+      <c r="CS14" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="CT14" s="23" t="s">
+      <c r="CT14" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="CU14" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="CV14" s="23">
-        <v>100</v>
-      </c>
-      <c r="CW14" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="CX14" s="23">
-        <v>100</v>
-      </c>
-      <c r="CY14" s="23" t="s">
+      <c r="CU14" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="CV14" s="100">
+        <v>100</v>
+      </c>
+      <c r="CW14" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="CX14" s="100">
+        <v>100</v>
+      </c>
+      <c r="CY14" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="CZ14" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA14" s="23">
-        <v>100</v>
-      </c>
-      <c r="DB14" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="DC14" s="23">
+      <c r="CZ14" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA14" s="100">
+        <v>100</v>
+      </c>
+      <c r="DB14" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC14" s="100">
         <v>25</v>
       </c>
-      <c r="DD14" s="23" t="s">
+      <c r="DD14" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="DE14" s="23" t="s">
+      <c r="DE14" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="DF14" s="23">
+      <c r="DF14" s="100">
         <v>123456789</v>
       </c>
-      <c r="DG14" s="23" t="s">
+      <c r="DG14" s="100" t="s">
         <v>276</v>
       </c>
-      <c r="DH14" s="23"/>
-      <c r="DI14" s="23">
+      <c r="DH14" s="100"/>
+      <c r="DI14" s="100">
         <v>1</v>
       </c>
-      <c r="DJ14" s="23" t="s">
+      <c r="DJ14" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="DK14" s="16" t="s">
+      <c r="DK14" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="DL14" s="23"/>
-      <c r="DM14" s="23" t="s">
+      <c r="DL14" s="100"/>
+      <c r="DM14" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="DN14" s="16">
+      <c r="DN14" s="101">
         <v>80</v>
       </c>
-      <c r="DO14" s="23">
+      <c r="DO14" s="100">
         <v>1</v>
       </c>
-      <c r="DP14" s="23" t="s">
+      <c r="DP14" s="100" t="s">
         <v>156</v>
       </c>
-      <c r="DQ14" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR14" s="23">
-        <v>100</v>
-      </c>
-      <c r="DS14" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="DT14" s="23">
-        <v>100</v>
-      </c>
-      <c r="DU14" s="23" t="s">
+      <c r="DQ14" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR14" s="100">
+        <v>100</v>
+      </c>
+      <c r="DS14" s="100" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT14" s="100">
+        <v>100</v>
+      </c>
+      <c r="DU14" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="DV14" s="16" t="s">
+      <c r="DV14" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="DW14" s="16" t="s">
+      <c r="DW14" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="DX14" s="16">
+      <c r="DX14" s="101">
         <v>1</v>
       </c>
-      <c r="DY14" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="DZ14" s="16">
-        <v>100</v>
-      </c>
-      <c r="EA14" s="16" t="s">
+      <c r="DY14" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="DZ14" s="101">
+        <v>100</v>
+      </c>
+      <c r="EA14" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="EB14" s="16">
+      <c r="EB14" s="101">
         <v>80</v>
       </c>
-      <c r="EC14" s="16">
+      <c r="EC14" s="101">
         <v>50</v>
       </c>
-      <c r="ED14" s="16">
+      <c r="ED14" s="101">
         <v>60</v>
       </c>
-      <c r="EE14" s="16">
+      <c r="EE14" s="101">
         <v>50</v>
       </c>
-      <c r="EF14" s="16" t="s">
+      <c r="EF14" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="EG14" s="16" t="s">
+      <c r="EG14" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="EH14" s="16" t="s">
+      <c r="EH14" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="EI14" s="16"/>
-      <c r="EJ14" s="16"/>
-      <c r="EK14" s="16"/>
-      <c r="EL14" s="16"/>
-      <c r="EM14" s="16"/>
-      <c r="EN14" s="16"/>
-      <c r="EO14" s="16"/>
-      <c r="EP14" s="16"/>
-      <c r="EQ14" s="23"/>
-      <c r="ER14" s="23"/>
-      <c r="ES14" s="23"/>
-      <c r="ET14" s="23"/>
-      <c r="EU14" s="23"/>
-      <c r="EV14" s="23"/>
-      <c r="EW14" s="23"/>
-      <c r="EX14" s="23"/>
-      <c r="EY14" s="23"/>
-      <c r="EZ14" s="23"/>
-      <c r="FA14" s="23"/>
-      <c r="FB14" s="23"/>
-      <c r="FC14" s="23"/>
-      <c r="FD14" s="23"/>
-      <c r="FE14" s="23"/>
-      <c r="FF14" s="23"/>
-      <c r="FG14" s="23"/>
-      <c r="FH14" s="26"/>
+      <c r="EI14" s="101"/>
+      <c r="EJ14" s="101"/>
+      <c r="EK14" s="101"/>
+      <c r="EL14" s="101"/>
+      <c r="EM14" s="101"/>
+      <c r="EN14" s="101"/>
+      <c r="EO14" s="101"/>
+      <c r="EP14" s="101"/>
+      <c r="EQ14" s="100"/>
+      <c r="ER14" s="100"/>
+      <c r="ES14" s="100"/>
+      <c r="ET14" s="100"/>
+      <c r="EU14" s="100"/>
+      <c r="EV14" s="100"/>
+      <c r="EW14" s="100"/>
+      <c r="EX14" s="100"/>
+      <c r="EY14" s="100"/>
+      <c r="EZ14" s="100"/>
+      <c r="FA14" s="100"/>
+      <c r="FB14" s="100"/>
+      <c r="FC14" s="100"/>
+      <c r="FD14" s="100"/>
+      <c r="FE14" s="100"/>
+      <c r="FF14" s="100"/>
+      <c r="FG14" s="100"/>
+      <c r="FH14" s="108"/>
     </row>
-    <row r="15" spans="1:164" s="77" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="b">
+    <row r="15" spans="1:164" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="69" t="s">
+      <c r="B15" s="116"/>
+      <c r="C15" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71" t="s">
+      <c r="F15" s="89"/>
+      <c r="G15" s="89" t="s">
         <v>162</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="112" t="s">
         <v>184</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="71">
+      <c r="J15" s="89">
         <v>80</v>
       </c>
-      <c r="K15" s="71" t="s">
+      <c r="K15" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="L15" s="71" t="s">
+      <c r="L15" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="M15" s="71" t="s">
+      <c r="M15" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="N15" s="71" t="s">
+      <c r="N15" s="89" t="s">
         <v>144</v>
       </c>
-      <c r="O15" s="71" t="s">
+      <c r="O15" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="P15" s="71" t="s">
+      <c r="P15" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="71" t="s">
+      <c r="Q15" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="R15" s="71" t="s">
+      <c r="R15" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="S15" s="71" t="s">
+      <c r="S15" s="89" t="s">
         <v>296</v>
       </c>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71">
+      <c r="T15" s="89"/>
+      <c r="U15" s="89">
         <v>75008</v>
       </c>
-      <c r="V15" s="71" t="s">
+      <c r="V15" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="W15" s="71" t="s">
+      <c r="W15" s="89" t="s">
         <v>164</v>
       </c>
-      <c r="X15" s="71" t="s">
+      <c r="X15" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="Y15" s="71" t="s">
+      <c r="Y15" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="Z15" s="71" t="s">
+      <c r="Z15" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="AA15" s="71" t="s">
+      <c r="AA15" s="89" t="s">
         <v>289</v>
       </c>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71">
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89">
         <v>44030</v>
       </c>
-      <c r="AD15" s="71" t="s">
+      <c r="AD15" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="AE15" s="71" t="s">
+      <c r="AE15" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="AF15" s="71" t="s">
+      <c r="AF15" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="AG15" s="70">
+      <c r="AG15" s="111">
         <v>12345</v>
       </c>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="71"/>
-      <c r="AL15" s="71"/>
-      <c r="AM15" s="71"/>
-      <c r="AN15" s="71"/>
-      <c r="AO15" s="71"/>
-      <c r="AP15" s="71"/>
-      <c r="AQ15" s="71"/>
-      <c r="AR15" s="71"/>
-      <c r="AS15" s="71"/>
-      <c r="AT15" s="71"/>
-      <c r="AU15" s="71"/>
-      <c r="AV15" s="71"/>
-      <c r="AW15" s="71"/>
-      <c r="AX15" s="71"/>
-      <c r="AY15" s="71"/>
-      <c r="AZ15" s="71"/>
-      <c r="BA15" s="71"/>
-      <c r="BB15" s="71"/>
-      <c r="BC15" s="71"/>
-      <c r="BD15" s="71"/>
-      <c r="BE15" s="75"/>
-      <c r="BF15" s="71"/>
-      <c r="BG15" s="71"/>
-      <c r="BH15" s="72"/>
-      <c r="BI15" s="72" t="s">
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="89"/>
+      <c r="AJ15" s="89"/>
+      <c r="AK15" s="89"/>
+      <c r="AL15" s="89"/>
+      <c r="AM15" s="89"/>
+      <c r="AN15" s="89"/>
+      <c r="AO15" s="89"/>
+      <c r="AP15" s="89"/>
+      <c r="AQ15" s="89"/>
+      <c r="AR15" s="89"/>
+      <c r="AS15" s="89"/>
+      <c r="AT15" s="89"/>
+      <c r="AU15" s="89"/>
+      <c r="AV15" s="89"/>
+      <c r="AW15" s="89"/>
+      <c r="AX15" s="89"/>
+      <c r="AY15" s="89"/>
+      <c r="AZ15" s="89"/>
+      <c r="BA15" s="89"/>
+      <c r="BB15" s="89"/>
+      <c r="BC15" s="89"/>
+      <c r="BD15" s="89"/>
+      <c r="BE15" s="113"/>
+      <c r="BF15" s="89"/>
+      <c r="BG15" s="89"/>
+      <c r="BH15" s="112"/>
+      <c r="BI15" s="112" t="s">
         <v>315</v>
       </c>
-      <c r="BJ15" s="72" t="s">
+      <c r="BJ15" s="112" t="s">
         <v>316</v>
       </c>
-      <c r="BK15" s="71"/>
-      <c r="BL15" s="71"/>
-      <c r="BM15" s="71"/>
-      <c r="BN15" s="71"/>
-      <c r="BO15" s="71"/>
-      <c r="BP15" s="71"/>
-      <c r="BQ15" s="71"/>
-      <c r="BR15" s="71"/>
-      <c r="BS15" s="71"/>
-      <c r="BT15" s="71"/>
-      <c r="BU15" s="71"/>
-      <c r="BV15" s="71"/>
-      <c r="BW15" s="71"/>
-      <c r="BX15" s="71"/>
-      <c r="BY15" s="71"/>
-      <c r="BZ15" s="71"/>
-      <c r="CA15" s="71"/>
-      <c r="CB15" s="71"/>
-      <c r="CC15" s="71"/>
-      <c r="CD15" s="71"/>
-      <c r="CE15" s="71"/>
-      <c r="CF15" s="71"/>
-      <c r="CG15" s="71"/>
-      <c r="CH15" s="71"/>
-      <c r="CI15" s="71"/>
-      <c r="CJ15" s="71"/>
-      <c r="CK15" s="71"/>
-      <c r="CL15" s="71"/>
-      <c r="CM15" s="71"/>
-      <c r="CN15" s="71"/>
-      <c r="CO15" s="71"/>
-      <c r="CP15" s="71" t="s">
+      <c r="BK15" s="89"/>
+      <c r="BL15" s="89"/>
+      <c r="BM15" s="89"/>
+      <c r="BN15" s="89"/>
+      <c r="BO15" s="89"/>
+      <c r="BP15" s="89"/>
+      <c r="BQ15" s="89"/>
+      <c r="BR15" s="89"/>
+      <c r="BS15" s="89"/>
+      <c r="BT15" s="89"/>
+      <c r="BU15" s="89"/>
+      <c r="BV15" s="89"/>
+      <c r="BW15" s="89"/>
+      <c r="BX15" s="89"/>
+      <c r="BY15" s="89"/>
+      <c r="BZ15" s="89"/>
+      <c r="CA15" s="89"/>
+      <c r="CB15" s="89"/>
+      <c r="CC15" s="89"/>
+      <c r="CD15" s="89"/>
+      <c r="CE15" s="89"/>
+      <c r="CF15" s="89"/>
+      <c r="CG15" s="89"/>
+      <c r="CH15" s="89"/>
+      <c r="CI15" s="89"/>
+      <c r="CJ15" s="89"/>
+      <c r="CK15" s="89"/>
+      <c r="CL15" s="89"/>
+      <c r="CM15" s="89"/>
+      <c r="CN15" s="89"/>
+      <c r="CO15" s="89"/>
+      <c r="CP15" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="CQ15" s="70" t="s">
+      <c r="CQ15" s="111" t="s">
         <v>288</v>
       </c>
-      <c r="CR15" s="70">
+      <c r="CR15" s="111">
         <v>12345</v>
       </c>
-      <c r="CS15" s="71" t="s">
+      <c r="CS15" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="CT15" s="70" t="s">
+      <c r="CT15" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="CU15" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CV15" s="70">
-        <v>100</v>
-      </c>
-      <c r="CW15" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CX15" s="70">
-        <v>100</v>
-      </c>
-      <c r="CY15" s="70" t="s">
+      <c r="CU15" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="CV15" s="111">
+        <v>100</v>
+      </c>
+      <c r="CW15" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="CX15" s="111">
+        <v>100</v>
+      </c>
+      <c r="CY15" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="CZ15" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA15" s="70">
-        <v>100</v>
-      </c>
-      <c r="DB15" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DC15" s="70">
+      <c r="CZ15" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA15" s="111">
+        <v>100</v>
+      </c>
+      <c r="DB15" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC15" s="111">
         <v>25</v>
       </c>
-      <c r="DD15" s="70" t="s">
+      <c r="DD15" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="DE15" s="70" t="s">
+      <c r="DE15" s="111" t="s">
         <v>154</v>
       </c>
-      <c r="DF15" s="70">
+      <c r="DF15" s="111">
         <v>123456789</v>
       </c>
-      <c r="DG15" s="70" t="s">
+      <c r="DG15" s="111" t="s">
         <v>276</v>
       </c>
-      <c r="DH15" s="70"/>
-      <c r="DI15" s="70">
+      <c r="DH15" s="111"/>
+      <c r="DI15" s="111">
         <v>1</v>
       </c>
-      <c r="DJ15" s="70" t="s">
+      <c r="DJ15" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="DK15" s="71" t="s">
+      <c r="DK15" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="DL15" s="70"/>
-      <c r="DM15" s="70" t="s">
+      <c r="DL15" s="111"/>
+      <c r="DM15" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="DN15" s="71">
+      <c r="DN15" s="89">
         <v>80</v>
       </c>
-      <c r="DO15" s="70">
+      <c r="DO15" s="111">
         <v>1</v>
       </c>
-      <c r="DP15" s="70" t="s">
+      <c r="DP15" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="DQ15" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR15" s="70">
-        <v>100</v>
-      </c>
-      <c r="DS15" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DT15" s="70">
-        <v>100</v>
-      </c>
-      <c r="DU15" s="70" t="s">
+      <c r="DQ15" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR15" s="111">
+        <v>100</v>
+      </c>
+      <c r="DS15" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT15" s="111">
+        <v>100</v>
+      </c>
+      <c r="DU15" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="DV15" s="71" t="s">
+      <c r="DV15" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="DW15" s="71" t="s">
+      <c r="DW15" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="DX15" s="71">
+      <c r="DX15" s="89">
         <v>1</v>
       </c>
-      <c r="DY15" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="DZ15" s="71">
-        <v>100</v>
-      </c>
-      <c r="EA15" s="71" t="s">
+      <c r="DY15" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="DZ15" s="89">
+        <v>100</v>
+      </c>
+      <c r="EA15" s="89" t="s">
         <v>160</v>
       </c>
-      <c r="EB15" s="71">
+      <c r="EB15" s="89">
         <v>80</v>
       </c>
-      <c r="EC15" s="71">
+      <c r="EC15" s="89">
         <v>50</v>
       </c>
-      <c r="ED15" s="71">
+      <c r="ED15" s="89">
         <v>60</v>
       </c>
-      <c r="EE15" s="71">
+      <c r="EE15" s="89">
         <v>50</v>
       </c>
-      <c r="EF15" s="71" t="s">
+      <c r="EF15" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="EG15" s="71" t="s">
+      <c r="EG15" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="EH15" s="71" t="s">
+      <c r="EH15" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="EI15" s="71"/>
-      <c r="EJ15" s="71" t="s">
+      <c r="EI15" s="89" t="s">
         <v>168</v>
       </c>
-      <c r="EK15" s="71"/>
-      <c r="EL15" s="71"/>
-      <c r="EM15" s="71"/>
-      <c r="EN15" s="71"/>
-      <c r="EO15" s="71"/>
-      <c r="EP15" s="71"/>
-      <c r="EQ15" s="70"/>
-      <c r="ER15" s="70"/>
-      <c r="ES15" s="70"/>
-      <c r="ET15" s="70"/>
-      <c r="EU15" s="70"/>
-      <c r="EV15" s="70"/>
-      <c r="EW15" s="70"/>
-      <c r="EX15" s="70"/>
-      <c r="EY15" s="70"/>
-      <c r="EZ15" s="70"/>
-      <c r="FA15" s="70"/>
-      <c r="FB15" s="70"/>
-      <c r="FC15" s="70"/>
-      <c r="FD15" s="70"/>
-      <c r="FE15" s="70"/>
-      <c r="FF15" s="70" t="s">
+      <c r="EJ15" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="EK15" s="89"/>
+      <c r="EL15" s="89"/>
+      <c r="EM15" s="89"/>
+      <c r="EN15" s="89"/>
+      <c r="EO15" s="89"/>
+      <c r="EP15" s="89"/>
+      <c r="EQ15" s="111"/>
+      <c r="ER15" s="111"/>
+      <c r="ES15" s="111"/>
+      <c r="ET15" s="111"/>
+      <c r="EU15" s="111"/>
+      <c r="EV15" s="111"/>
+      <c r="EW15" s="111"/>
+      <c r="EX15" s="111"/>
+      <c r="EY15" s="111"/>
+      <c r="EZ15" s="111"/>
+      <c r="FA15" s="111"/>
+      <c r="FB15" s="111"/>
+      <c r="FC15" s="111"/>
+      <c r="FD15" s="111"/>
+      <c r="FE15" s="111"/>
+      <c r="FF15" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="FG15" s="70">
+      <c r="FG15" s="111">
         <v>5</v>
       </c>
-      <c r="FH15" s="76"/>
+      <c r="FH15" s="114"/>
     </row>
-    <row r="16" spans="1:164" s="77" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="b">
+    <row r="16" spans="1:164" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="69" t="s">
+      <c r="B16" s="116"/>
+      <c r="C16" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71" t="s">
+      <c r="F16" s="65"/>
+      <c r="G16" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="H16" s="72" t="s">
+      <c r="H16" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="J16" s="71">
+      <c r="J16" s="65">
         <v>80</v>
       </c>
-      <c r="K16" s="71" t="s">
+      <c r="K16" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="L16" s="71" t="s">
+      <c r="L16" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="M16" s="71" t="s">
+      <c r="M16" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="N16" s="71" t="s">
+      <c r="N16" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="O16" s="71" t="s">
+      <c r="O16" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="P16" s="71" t="s">
+      <c r="P16" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="Q16" s="71" t="s">
+      <c r="Q16" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="R16" s="71" t="s">
+      <c r="R16" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="S16" s="71" t="s">
+      <c r="S16" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71">
+      <c r="T16" s="65"/>
+      <c r="U16" s="65">
         <v>75008</v>
       </c>
-      <c r="V16" s="71" t="s">
+      <c r="V16" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="W16" s="71" t="s">
+      <c r="W16" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="X16" s="71" t="s">
+      <c r="X16" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="Y16" s="71" t="s">
+      <c r="Y16" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="Z16" s="71" t="s">
+      <c r="Z16" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="AA16" s="71" t="s">
+      <c r="AA16" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="73" t="s">
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="AD16" s="71" t="s">
+      <c r="AD16" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="AE16" s="71" t="s">
+      <c r="AE16" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="AF16" s="71" t="s">
+      <c r="AF16" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="AG16" s="70">
+      <c r="AG16" s="64">
         <v>12345</v>
       </c>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71" t="s">
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="AJ16" s="71"/>
-      <c r="AK16" s="71"/>
-      <c r="AL16" s="71"/>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="71"/>
-      <c r="AO16" s="71"/>
-      <c r="AP16" s="71"/>
-      <c r="AQ16" s="71"/>
-      <c r="AR16" s="71"/>
-      <c r="AS16" s="71"/>
-      <c r="AT16" s="71"/>
-      <c r="AU16" s="71"/>
-      <c r="AV16" s="74" t="s">
+      <c r="AJ16" s="65"/>
+      <c r="AK16" s="65"/>
+      <c r="AL16" s="65"/>
+      <c r="AM16" s="65"/>
+      <c r="AN16" s="65"/>
+      <c r="AO16" s="65"/>
+      <c r="AP16" s="65"/>
+      <c r="AQ16" s="65"/>
+      <c r="AR16" s="65"/>
+      <c r="AS16" s="65"/>
+      <c r="AT16" s="65"/>
+      <c r="AU16" s="65"/>
+      <c r="AV16" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="AW16" s="71"/>
-      <c r="AX16" s="71"/>
-      <c r="AY16" s="71"/>
-      <c r="AZ16" s="71"/>
-      <c r="BA16" s="71"/>
-      <c r="BB16" s="71"/>
-      <c r="BC16" s="71"/>
-      <c r="BD16" s="71"/>
-      <c r="BE16" s="75"/>
-      <c r="BF16" s="71"/>
-      <c r="BG16" s="71"/>
-      <c r="BH16" s="72"/>
-      <c r="BI16" s="72" t="s">
+      <c r="AW16" s="65"/>
+      <c r="AX16" s="65"/>
+      <c r="AY16" s="65"/>
+      <c r="AZ16" s="65"/>
+      <c r="BA16" s="65"/>
+      <c r="BB16" s="65"/>
+      <c r="BC16" s="65"/>
+      <c r="BD16" s="65"/>
+      <c r="BE16" s="69"/>
+      <c r="BF16" s="65"/>
+      <c r="BG16" s="65"/>
+      <c r="BH16" s="66"/>
+      <c r="BI16" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="BJ16" s="72" t="s">
+      <c r="BJ16" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="BK16" s="71"/>
-      <c r="BL16" s="71"/>
-      <c r="BM16" s="71"/>
-      <c r="BN16" s="71"/>
-      <c r="BO16" s="71"/>
-      <c r="BP16" s="71"/>
-      <c r="BQ16" s="71"/>
-      <c r="BR16" s="71"/>
-      <c r="BS16" s="71"/>
-      <c r="BT16" s="71"/>
-      <c r="BU16" s="71"/>
-      <c r="BV16" s="71"/>
-      <c r="BW16" s="71"/>
-      <c r="BX16" s="71"/>
-      <c r="BY16" s="71"/>
-      <c r="BZ16" s="71"/>
-      <c r="CA16" s="71" t="s">
+      <c r="BK16" s="65"/>
+      <c r="BL16" s="65"/>
+      <c r="BM16" s="65"/>
+      <c r="BN16" s="65"/>
+      <c r="BO16" s="65"/>
+      <c r="BP16" s="65"/>
+      <c r="BQ16" s="65"/>
+      <c r="BR16" s="65"/>
+      <c r="BS16" s="65"/>
+      <c r="BT16" s="65"/>
+      <c r="BU16" s="65"/>
+      <c r="BV16" s="65"/>
+      <c r="BW16" s="65"/>
+      <c r="BX16" s="65"/>
+      <c r="BY16" s="65"/>
+      <c r="BZ16" s="65"/>
+      <c r="CA16" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="CB16" s="71"/>
-      <c r="CC16" s="71"/>
-      <c r="CD16" s="71"/>
-      <c r="CE16" s="71"/>
-      <c r="CF16" s="71"/>
-      <c r="CG16" s="71"/>
-      <c r="CH16" s="71"/>
-      <c r="CI16" s="71"/>
-      <c r="CJ16" s="71"/>
-      <c r="CK16" s="71"/>
-      <c r="CL16" s="71"/>
-      <c r="CM16" s="71"/>
-      <c r="CN16" s="71"/>
-      <c r="CO16" s="71"/>
-      <c r="CP16" s="71" t="s">
+      <c r="CB16" s="65"/>
+      <c r="CC16" s="65"/>
+      <c r="CD16" s="65"/>
+      <c r="CE16" s="65"/>
+      <c r="CF16" s="65"/>
+      <c r="CG16" s="65"/>
+      <c r="CH16" s="65"/>
+      <c r="CI16" s="65"/>
+      <c r="CJ16" s="65"/>
+      <c r="CK16" s="65"/>
+      <c r="CL16" s="65"/>
+      <c r="CM16" s="65"/>
+      <c r="CN16" s="65"/>
+      <c r="CO16" s="65"/>
+      <c r="CP16" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="CQ16" s="70" t="s">
+      <c r="CQ16" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="CR16" s="70">
+      <c r="CR16" s="64">
         <v>12345</v>
       </c>
-      <c r="CS16" s="71" t="s">
+      <c r="CS16" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="CT16" s="70" t="s">
+      <c r="CT16" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="CU16" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CV16" s="70">
-        <v>100</v>
-      </c>
-      <c r="CW16" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CX16" s="70">
-        <v>100</v>
-      </c>
-      <c r="CY16" s="70" t="s">
+      <c r="CU16" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="CV16" s="64">
+        <v>100</v>
+      </c>
+      <c r="CW16" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="CX16" s="64">
+        <v>100</v>
+      </c>
+      <c r="CY16" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="CZ16" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA16" s="70">
-        <v>100</v>
-      </c>
-      <c r="DB16" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DC16" s="70">
+      <c r="CZ16" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA16" s="64">
+        <v>100</v>
+      </c>
+      <c r="DB16" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC16" s="64">
         <v>25</v>
       </c>
-      <c r="DD16" s="70" t="s">
+      <c r="DD16" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="DE16" s="70" t="s">
+      <c r="DE16" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="DF16" s="70">
+      <c r="DF16" s="64">
         <v>123456789</v>
       </c>
-      <c r="DG16" s="70" t="s">
+      <c r="DG16" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="DH16" s="70"/>
-      <c r="DI16" s="70">
+      <c r="DH16" s="64"/>
+      <c r="DI16" s="64">
         <v>1</v>
       </c>
-      <c r="DJ16" s="70" t="s">
+      <c r="DJ16" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="DK16" s="71" t="s">
+      <c r="DK16" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="DL16" s="70"/>
-      <c r="DM16" s="70" t="s">
+      <c r="DL16" s="64"/>
+      <c r="DM16" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="DN16" s="71">
+      <c r="DN16" s="65">
         <v>80</v>
       </c>
-      <c r="DO16" s="70">
+      <c r="DO16" s="64">
         <v>1</v>
       </c>
-      <c r="DP16" s="70" t="s">
+      <c r="DP16" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="DQ16" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR16" s="70">
-        <v>100</v>
-      </c>
-      <c r="DS16" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DT16" s="70">
-        <v>100</v>
-      </c>
-      <c r="DU16" s="70" t="s">
+      <c r="DQ16" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR16" s="64">
+        <v>100</v>
+      </c>
+      <c r="DS16" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT16" s="64">
+        <v>100</v>
+      </c>
+      <c r="DU16" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="DV16" s="71" t="s">
+      <c r="DV16" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="DW16" s="71" t="s">
+      <c r="DW16" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="DX16" s="71">
+      <c r="DX16" s="65">
         <v>1</v>
       </c>
-      <c r="DY16" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="DZ16" s="71">
-        <v>100</v>
-      </c>
-      <c r="EA16" s="71" t="s">
+      <c r="DY16" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="DZ16" s="65">
+        <v>100</v>
+      </c>
+      <c r="EA16" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="EB16" s="71">
+      <c r="EB16" s="65">
         <v>80</v>
       </c>
-      <c r="EC16" s="71">
+      <c r="EC16" s="65">
         <v>50</v>
       </c>
-      <c r="ED16" s="71">
+      <c r="ED16" s="65">
         <v>60</v>
       </c>
-      <c r="EE16" s="71">
+      <c r="EE16" s="65">
         <v>50</v>
       </c>
-      <c r="EF16" s="71" t="s">
+      <c r="EF16" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="EG16" s="71" t="s">
+      <c r="EG16" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="EH16" s="71" t="s">
+      <c r="EH16" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="EI16" s="71"/>
-      <c r="EJ16" s="71"/>
-      <c r="EK16" s="71"/>
-      <c r="EL16" s="71"/>
-      <c r="EM16" s="71"/>
-      <c r="EN16" s="71"/>
-      <c r="EO16" s="71"/>
-      <c r="EP16" s="71"/>
-      <c r="EQ16" s="70"/>
-      <c r="ER16" s="70"/>
-      <c r="ES16" s="70"/>
-      <c r="ET16" s="70"/>
-      <c r="EU16" s="70"/>
-      <c r="EV16" s="70"/>
-      <c r="EW16" s="70"/>
-      <c r="EX16" s="70"/>
-      <c r="EY16" s="70"/>
-      <c r="EZ16" s="70"/>
-      <c r="FA16" s="70"/>
-      <c r="FB16" s="70"/>
-      <c r="FC16" s="70"/>
-      <c r="FD16" s="70"/>
-      <c r="FE16" s="70"/>
-      <c r="FF16" s="70"/>
-      <c r="FG16" s="70"/>
-      <c r="FH16" s="76"/>
+      <c r="EI16" s="65"/>
+      <c r="EJ16" s="65"/>
+      <c r="EK16" s="65"/>
+      <c r="EL16" s="65"/>
+      <c r="EM16" s="65"/>
+      <c r="EN16" s="65"/>
+      <c r="EO16" s="65"/>
+      <c r="EP16" s="65"/>
+      <c r="EQ16" s="64"/>
+      <c r="ER16" s="64"/>
+      <c r="ES16" s="64"/>
+      <c r="ET16" s="64"/>
+      <c r="EU16" s="64"/>
+      <c r="EV16" s="64"/>
+      <c r="EW16" s="64"/>
+      <c r="EX16" s="64"/>
+      <c r="EY16" s="64"/>
+      <c r="EZ16" s="64"/>
+      <c r="FA16" s="64"/>
+      <c r="FB16" s="64"/>
+      <c r="FC16" s="64"/>
+      <c r="FD16" s="64"/>
+      <c r="FE16" s="64"/>
+      <c r="FF16" s="64"/>
+      <c r="FG16" s="64"/>
+      <c r="FH16" s="70"/>
     </row>
-    <row r="17" spans="1:164" s="77" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="b">
+    <row r="17" spans="1:164" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="69" t="s">
+      <c r="B17" s="116"/>
+      <c r="C17" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71" t="s">
+      <c r="F17" s="65"/>
+      <c r="G17" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="I17" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="71">
+      <c r="J17" s="65">
         <v>80</v>
       </c>
-      <c r="K17" s="71" t="s">
+      <c r="K17" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="L17" s="71" t="s">
+      <c r="L17" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="M17" s="71" t="s">
+      <c r="M17" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="O17" s="71" t="s">
+      <c r="O17" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="P17" s="71" t="s">
+      <c r="P17" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="Q17" s="71" t="s">
+      <c r="Q17" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="R17" s="71" t="s">
+      <c r="R17" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="S17" s="71" t="s">
+      <c r="S17" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71">
+      <c r="T17" s="65"/>
+      <c r="U17" s="65">
         <v>28070</v>
       </c>
-      <c r="V17" s="71" t="s">
+      <c r="V17" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="W17" s="71" t="s">
+      <c r="W17" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="X17" s="71" t="s">
+      <c r="X17" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="Y17" s="71" t="s">
+      <c r="Y17" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="Z17" s="71" t="s">
+      <c r="Z17" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="AA17" s="71" t="s">
+      <c r="AA17" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="AB17" s="71" t="s">
+      <c r="AB17" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="AC17" s="71" t="s">
+      <c r="AC17" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="AD17" s="71" t="s">
+      <c r="AD17" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="AE17" s="71" t="s">
+      <c r="AE17" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="AF17" s="71" t="s">
+      <c r="AF17" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="AG17" s="70">
+      <c r="AG17" s="64">
         <v>12345</v>
       </c>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71" t="s">
+      <c r="AH17" s="65"/>
+      <c r="AI17" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="71"/>
-      <c r="AO17" s="71"/>
-      <c r="AP17" s="71"/>
-      <c r="AQ17" s="71"/>
-      <c r="AR17" s="71"/>
-      <c r="AS17" s="71"/>
-      <c r="AT17" s="71"/>
-      <c r="AU17" s="71"/>
-      <c r="AV17" s="74" t="s">
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="65"/>
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="AW17" s="71"/>
-      <c r="AX17" s="71"/>
-      <c r="AY17" s="71"/>
-      <c r="AZ17" s="71"/>
-      <c r="BA17" s="71"/>
-      <c r="BB17" s="71"/>
-      <c r="BC17" s="71"/>
-      <c r="BD17" s="71"/>
-      <c r="BE17" s="75"/>
-      <c r="BF17" s="71"/>
-      <c r="BG17" s="71"/>
-      <c r="BH17" s="72"/>
-      <c r="BI17" s="72" t="s">
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="65"/>
+      <c r="AZ17" s="65"/>
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="65"/>
+      <c r="BC17" s="65"/>
+      <c r="BD17" s="65"/>
+      <c r="BE17" s="69"/>
+      <c r="BF17" s="65"/>
+      <c r="BG17" s="65"/>
+      <c r="BH17" s="66"/>
+      <c r="BI17" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="BJ17" s="72" t="s">
+      <c r="BJ17" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="BK17" s="71"/>
-      <c r="BL17" s="71"/>
-      <c r="BM17" s="71"/>
-      <c r="BN17" s="71"/>
-      <c r="BO17" s="71"/>
-      <c r="BP17" s="71"/>
-      <c r="BQ17" s="71"/>
-      <c r="BR17" s="71"/>
-      <c r="BS17" s="71"/>
-      <c r="BT17" s="71"/>
-      <c r="BU17" s="71"/>
-      <c r="BV17" s="71"/>
-      <c r="BW17" s="71"/>
-      <c r="BX17" s="71"/>
-      <c r="BY17" s="71"/>
-      <c r="BZ17" s="71"/>
-      <c r="CA17" s="71" t="s">
+      <c r="BK17" s="65"/>
+      <c r="BL17" s="65"/>
+      <c r="BM17" s="65"/>
+      <c r="BN17" s="65"/>
+      <c r="BO17" s="65"/>
+      <c r="BP17" s="65"/>
+      <c r="BQ17" s="65"/>
+      <c r="BR17" s="65"/>
+      <c r="BS17" s="65"/>
+      <c r="BT17" s="65"/>
+      <c r="BU17" s="65"/>
+      <c r="BV17" s="65"/>
+      <c r="BW17" s="65"/>
+      <c r="BX17" s="65"/>
+      <c r="BY17" s="65"/>
+      <c r="BZ17" s="65"/>
+      <c r="CA17" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="CB17" s="71" t="s">
+      <c r="CB17" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="CC17" s="71"/>
-      <c r="CD17" s="71"/>
-      <c r="CE17" s="71"/>
-      <c r="CF17" s="71"/>
-      <c r="CG17" s="71"/>
-      <c r="CH17" s="71"/>
-      <c r="CI17" s="71"/>
-      <c r="CJ17" s="71"/>
-      <c r="CK17" s="71"/>
-      <c r="CL17" s="71"/>
-      <c r="CM17" s="71"/>
-      <c r="CN17" s="71"/>
-      <c r="CO17" s="71"/>
-      <c r="CP17" s="71" t="s">
+      <c r="CC17" s="65"/>
+      <c r="CD17" s="65"/>
+      <c r="CE17" s="65"/>
+      <c r="CF17" s="65"/>
+      <c r="CG17" s="65"/>
+      <c r="CH17" s="65"/>
+      <c r="CI17" s="65"/>
+      <c r="CJ17" s="65"/>
+      <c r="CK17" s="65"/>
+      <c r="CL17" s="65"/>
+      <c r="CM17" s="65"/>
+      <c r="CN17" s="65"/>
+      <c r="CO17" s="65"/>
+      <c r="CP17" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="CQ17" s="70" t="s">
+      <c r="CQ17" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="CR17" s="70">
+      <c r="CR17" s="64">
         <v>12345</v>
       </c>
-      <c r="CS17" s="71" t="s">
+      <c r="CS17" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="CT17" s="70" t="s">
+      <c r="CT17" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="CU17" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CV17" s="70">
-        <v>100</v>
-      </c>
-      <c r="CW17" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CX17" s="70">
-        <v>100</v>
-      </c>
-      <c r="CY17" s="70" t="s">
+      <c r="CU17" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="CV17" s="64">
+        <v>100</v>
+      </c>
+      <c r="CW17" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="CX17" s="64">
+        <v>100</v>
+      </c>
+      <c r="CY17" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="CZ17" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA17" s="70">
-        <v>100</v>
-      </c>
-      <c r="DB17" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DC17" s="70">
+      <c r="CZ17" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA17" s="64">
+        <v>100</v>
+      </c>
+      <c r="DB17" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC17" s="64">
         <v>25</v>
       </c>
-      <c r="DD17" s="70" t="s">
+      <c r="DD17" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="DE17" s="70" t="s">
+      <c r="DE17" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="DF17" s="70">
+      <c r="DF17" s="64">
         <v>123456789</v>
       </c>
-      <c r="DG17" s="70" t="s">
+      <c r="DG17" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="DH17" s="70"/>
-      <c r="DI17" s="70">
+      <c r="DH17" s="64"/>
+      <c r="DI17" s="64">
         <v>1</v>
       </c>
-      <c r="DJ17" s="70" t="s">
+      <c r="DJ17" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="DK17" s="71" t="s">
+      <c r="DK17" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="DL17" s="70"/>
-      <c r="DM17" s="70" t="s">
+      <c r="DL17" s="64"/>
+      <c r="DM17" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="DN17" s="71">
+      <c r="DN17" s="65">
         <v>80</v>
       </c>
-      <c r="DO17" s="70">
+      <c r="DO17" s="64">
         <v>1</v>
       </c>
-      <c r="DP17" s="70" t="s">
+      <c r="DP17" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="DQ17" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR17" s="70">
-        <v>100</v>
-      </c>
-      <c r="DS17" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DT17" s="70">
-        <v>100</v>
-      </c>
-      <c r="DU17" s="70" t="s">
+      <c r="DQ17" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR17" s="64">
+        <v>100</v>
+      </c>
+      <c r="DS17" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT17" s="64">
+        <v>100</v>
+      </c>
+      <c r="DU17" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="DV17" s="71" t="s">
+      <c r="DV17" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="DW17" s="71" t="s">
+      <c r="DW17" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="DX17" s="71">
+      <c r="DX17" s="65">
         <v>1</v>
       </c>
-      <c r="DY17" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="DZ17" s="71">
-        <v>100</v>
-      </c>
-      <c r="EA17" s="71" t="s">
+      <c r="DY17" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="DZ17" s="65">
+        <v>100</v>
+      </c>
+      <c r="EA17" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="EB17" s="71">
+      <c r="EB17" s="65">
         <v>80</v>
       </c>
-      <c r="EC17" s="71">
+      <c r="EC17" s="65">
         <v>50</v>
       </c>
-      <c r="ED17" s="71">
+      <c r="ED17" s="65">
         <v>60</v>
       </c>
-      <c r="EE17" s="71">
+      <c r="EE17" s="65">
         <v>50</v>
       </c>
-      <c r="EF17" s="71" t="s">
+      <c r="EF17" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="EG17" s="71" t="s">
+      <c r="EG17" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="EH17" s="71" t="s">
+      <c r="EH17" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="EI17" s="71"/>
-      <c r="EJ17" s="71"/>
-      <c r="EK17" s="71"/>
-      <c r="EL17" s="71"/>
-      <c r="EM17" s="71"/>
-      <c r="EN17" s="71"/>
-      <c r="EO17" s="71"/>
-      <c r="EP17" s="71"/>
-      <c r="EQ17" s="70"/>
-      <c r="ER17" s="70"/>
-      <c r="ES17" s="70"/>
-      <c r="ET17" s="70"/>
-      <c r="EU17" s="70"/>
-      <c r="EV17" s="70"/>
-      <c r="EW17" s="70"/>
-      <c r="EX17" s="70"/>
-      <c r="EY17" s="70"/>
-      <c r="EZ17" s="70"/>
-      <c r="FA17" s="70"/>
-      <c r="FB17" s="70"/>
-      <c r="FC17" s="70"/>
-      <c r="FD17" s="70"/>
-      <c r="FE17" s="70"/>
-      <c r="FF17" s="70"/>
-      <c r="FG17" s="70"/>
-      <c r="FH17" s="76"/>
+      <c r="EI17" s="65"/>
+      <c r="EJ17" s="65"/>
+      <c r="EK17" s="65"/>
+      <c r="EL17" s="65"/>
+      <c r="EM17" s="65"/>
+      <c r="EN17" s="65"/>
+      <c r="EO17" s="65"/>
+      <c r="EP17" s="65"/>
+      <c r="EQ17" s="64"/>
+      <c r="ER17" s="64"/>
+      <c r="ES17" s="64"/>
+      <c r="ET17" s="64"/>
+      <c r="EU17" s="64"/>
+      <c r="EV17" s="64"/>
+      <c r="EW17" s="64"/>
+      <c r="EX17" s="64"/>
+      <c r="EY17" s="64"/>
+      <c r="EZ17" s="64"/>
+      <c r="FA17" s="64"/>
+      <c r="FB17" s="64"/>
+      <c r="FC17" s="64"/>
+      <c r="FD17" s="64"/>
+      <c r="FE17" s="64"/>
+      <c r="FF17" s="64"/>
+      <c r="FG17" s="64"/>
+      <c r="FH17" s="70"/>
     </row>
-    <row r="18" spans="1:164" s="77" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="b">
+    <row r="18" spans="1:164" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="69" t="s">
+      <c r="B18" s="116"/>
+      <c r="C18" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71" t="s">
+      <c r="F18" s="65"/>
+      <c r="G18" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="H18" s="72" t="s">
+      <c r="H18" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="I18" s="72" t="s">
+      <c r="I18" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="71">
+      <c r="J18" s="65">
         <v>80</v>
       </c>
-      <c r="K18" s="71" t="s">
+      <c r="K18" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="L18" s="71" t="s">
+      <c r="L18" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="M18" s="71" t="s">
+      <c r="M18" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="N18" s="71" t="s">
+      <c r="N18" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="O18" s="71" t="s">
+      <c r="O18" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="P18" s="71" t="s">
+      <c r="P18" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="Q18" s="71" t="s">
+      <c r="Q18" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="R18" s="71" t="s">
+      <c r="R18" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="S18" s="71" t="s">
+      <c r="S18" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71">
+      <c r="T18" s="65"/>
+      <c r="U18" s="65">
         <v>75008</v>
       </c>
-      <c r="V18" s="71" t="s">
+      <c r="V18" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="W18" s="71" t="s">
+      <c r="W18" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="X18" s="71" t="s">
+      <c r="X18" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="Y18" s="71" t="s">
+      <c r="Y18" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="Z18" s="71" t="s">
+      <c r="Z18" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="AA18" s="71" t="s">
+      <c r="AA18" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71">
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65">
         <v>22599</v>
       </c>
-      <c r="AD18" s="71" t="s">
+      <c r="AD18" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="AE18" s="71" t="s">
+      <c r="AE18" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="AF18" s="71" t="s">
+      <c r="AF18" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="AG18" s="70">
+      <c r="AG18" s="64">
         <v>12345</v>
       </c>
-      <c r="AH18" s="78"/>
-      <c r="AI18" s="78" t="s">
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="78" t="s">
+      <c r="AJ18" s="65"/>
+      <c r="AK18" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="AL18" s="71">
+      <c r="AL18" s="65">
         <v>200</v>
       </c>
-      <c r="AM18" s="78" t="s">
+      <c r="AM18" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="AN18" s="78" t="s">
+      <c r="AN18" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="AO18" s="78" t="s">
+      <c r="AO18" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="AP18" s="78" t="s">
+      <c r="AP18" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="AQ18" s="71"/>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="71"/>
-      <c r="AV18" s="74"/>
-      <c r="AW18" s="71"/>
-      <c r="AX18" s="71"/>
-      <c r="AY18" s="71"/>
-      <c r="AZ18" s="71"/>
-      <c r="BA18" s="71"/>
-      <c r="BB18" s="71"/>
-      <c r="BC18" s="71"/>
-      <c r="BD18" s="71"/>
-      <c r="BE18" s="75"/>
-      <c r="BF18" s="71"/>
-      <c r="BG18" s="71"/>
-      <c r="BH18" s="72"/>
-      <c r="BI18" s="72" t="s">
+      <c r="AQ18" s="65"/>
+      <c r="AR18" s="65"/>
+      <c r="AS18" s="65"/>
+      <c r="AT18" s="65"/>
+      <c r="AU18" s="65"/>
+      <c r="AV18" s="68"/>
+      <c r="AW18" s="65"/>
+      <c r="AX18" s="65"/>
+      <c r="AY18" s="65"/>
+      <c r="AZ18" s="65"/>
+      <c r="BA18" s="65"/>
+      <c r="BB18" s="65"/>
+      <c r="BC18" s="65"/>
+      <c r="BD18" s="65"/>
+      <c r="BE18" s="69"/>
+      <c r="BF18" s="65"/>
+      <c r="BG18" s="65"/>
+      <c r="BH18" s="66"/>
+      <c r="BI18" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="BJ18" s="72" t="s">
+      <c r="BJ18" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="BK18" s="71"/>
-      <c r="BL18" s="71"/>
-      <c r="BM18" s="71"/>
-      <c r="BN18" s="71"/>
-      <c r="BO18" s="71"/>
-      <c r="BP18" s="71"/>
-      <c r="BQ18" s="71"/>
-      <c r="BR18" s="71"/>
-      <c r="BS18" s="71"/>
-      <c r="BT18" s="71"/>
-      <c r="BU18" s="71"/>
-      <c r="BV18" s="71"/>
-      <c r="BW18" s="71"/>
-      <c r="BX18" s="71"/>
-      <c r="BY18" s="71"/>
-      <c r="BZ18" s="71"/>
-      <c r="CA18" s="71"/>
-      <c r="CB18" s="71"/>
-      <c r="CC18" s="71"/>
-      <c r="CD18" s="71"/>
-      <c r="CE18" s="71"/>
-      <c r="CF18" s="71"/>
-      <c r="CG18" s="71"/>
-      <c r="CH18" s="71"/>
-      <c r="CI18" s="71"/>
-      <c r="CJ18" s="71"/>
-      <c r="CK18" s="71"/>
-      <c r="CL18" s="71"/>
-      <c r="CM18" s="71"/>
-      <c r="CN18" s="71"/>
-      <c r="CO18" s="71"/>
-      <c r="CP18" s="71" t="s">
+      <c r="BK18" s="65"/>
+      <c r="BL18" s="65"/>
+      <c r="BM18" s="65"/>
+      <c r="BN18" s="65"/>
+      <c r="BO18" s="65"/>
+      <c r="BP18" s="65"/>
+      <c r="BQ18" s="65"/>
+      <c r="BR18" s="65"/>
+      <c r="BS18" s="65"/>
+      <c r="BT18" s="65"/>
+      <c r="BU18" s="65"/>
+      <c r="BV18" s="65"/>
+      <c r="BW18" s="65"/>
+      <c r="BX18" s="65"/>
+      <c r="BY18" s="65"/>
+      <c r="BZ18" s="65"/>
+      <c r="CA18" s="65"/>
+      <c r="CB18" s="65"/>
+      <c r="CC18" s="65"/>
+      <c r="CD18" s="65"/>
+      <c r="CE18" s="65"/>
+      <c r="CF18" s="65"/>
+      <c r="CG18" s="65"/>
+      <c r="CH18" s="65"/>
+      <c r="CI18" s="65"/>
+      <c r="CJ18" s="65"/>
+      <c r="CK18" s="65"/>
+      <c r="CL18" s="65"/>
+      <c r="CM18" s="65"/>
+      <c r="CN18" s="65"/>
+      <c r="CO18" s="65"/>
+      <c r="CP18" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="CQ18" s="70" t="s">
+      <c r="CQ18" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="CR18" s="70">
+      <c r="CR18" s="64">
         <v>12345</v>
       </c>
-      <c r="CS18" s="71" t="s">
+      <c r="CS18" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="CT18" s="70" t="s">
+      <c r="CT18" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="CU18" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CV18" s="70">
-        <v>100</v>
-      </c>
-      <c r="CW18" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CX18" s="70">
-        <v>100</v>
-      </c>
-      <c r="CY18" s="70" t="s">
+      <c r="CU18" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="CV18" s="64">
+        <v>100</v>
+      </c>
+      <c r="CW18" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="CX18" s="64">
+        <v>100</v>
+      </c>
+      <c r="CY18" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="CZ18" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA18" s="70">
-        <v>100</v>
-      </c>
-      <c r="DB18" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DC18" s="70">
+      <c r="CZ18" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA18" s="64">
+        <v>100</v>
+      </c>
+      <c r="DB18" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC18" s="64">
         <v>25</v>
       </c>
-      <c r="DD18" s="70" t="s">
+      <c r="DD18" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="DE18" s="70" t="s">
+      <c r="DE18" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="DF18" s="70">
+      <c r="DF18" s="64">
         <v>123456789</v>
       </c>
-      <c r="DG18" s="70" t="s">
+      <c r="DG18" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="DH18" s="70"/>
-      <c r="DI18" s="70">
+      <c r="DH18" s="64"/>
+      <c r="DI18" s="64">
         <v>1</v>
       </c>
-      <c r="DJ18" s="70" t="s">
+      <c r="DJ18" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="DK18" s="71" t="s">
+      <c r="DK18" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="DL18" s="70"/>
-      <c r="DM18" s="70" t="s">
+      <c r="DL18" s="64"/>
+      <c r="DM18" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="DN18" s="71">
+      <c r="DN18" s="65">
         <v>80</v>
       </c>
-      <c r="DO18" s="70">
+      <c r="DO18" s="64">
         <v>1</v>
       </c>
-      <c r="DP18" s="70" t="s">
+      <c r="DP18" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="DQ18" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR18" s="70">
-        <v>100</v>
-      </c>
-      <c r="DS18" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DT18" s="70">
-        <v>100</v>
-      </c>
-      <c r="DU18" s="70" t="s">
+      <c r="DQ18" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR18" s="64">
+        <v>100</v>
+      </c>
+      <c r="DS18" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT18" s="64">
+        <v>100</v>
+      </c>
+      <c r="DU18" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="DV18" s="71" t="s">
+      <c r="DV18" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="DW18" s="71" t="s">
+      <c r="DW18" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="DX18" s="71">
+      <c r="DX18" s="65">
         <v>1</v>
       </c>
-      <c r="DY18" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="DZ18" s="71">
-        <v>100</v>
-      </c>
-      <c r="EA18" s="71" t="s">
+      <c r="DY18" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="DZ18" s="65">
+        <v>100</v>
+      </c>
+      <c r="EA18" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="EB18" s="71">
+      <c r="EB18" s="65">
         <v>80</v>
       </c>
-      <c r="EC18" s="71">
+      <c r="EC18" s="65">
         <v>50</v>
       </c>
-      <c r="ED18" s="71">
+      <c r="ED18" s="65">
         <v>60</v>
       </c>
-      <c r="EE18" s="71">
+      <c r="EE18" s="65">
         <v>50</v>
       </c>
-      <c r="EF18" s="71" t="s">
+      <c r="EF18" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="EG18" s="71" t="s">
+      <c r="EG18" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="EH18" s="71" t="s">
+      <c r="EH18" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="EI18" s="71"/>
-      <c r="EJ18" s="71"/>
-      <c r="EK18" s="71"/>
-      <c r="EL18" s="71"/>
-      <c r="EM18" s="71"/>
-      <c r="EN18" s="71"/>
-      <c r="EO18" s="71"/>
-      <c r="EP18" s="71"/>
-      <c r="EQ18" s="70"/>
-      <c r="ER18" s="70"/>
-      <c r="ES18" s="70"/>
-      <c r="ET18" s="70"/>
-      <c r="EU18" s="70"/>
-      <c r="EV18" s="70"/>
-      <c r="EW18" s="70"/>
-      <c r="EX18" s="70"/>
-      <c r="EY18" s="70"/>
-      <c r="EZ18" s="70"/>
-      <c r="FA18" s="70"/>
-      <c r="FB18" s="70"/>
-      <c r="FC18" s="70"/>
-      <c r="FD18" s="70"/>
-      <c r="FE18" s="70"/>
-      <c r="FF18" s="70"/>
-      <c r="FG18" s="70"/>
-      <c r="FH18" s="76"/>
+      <c r="EI18" s="65"/>
+      <c r="EJ18" s="65"/>
+      <c r="EK18" s="65"/>
+      <c r="EL18" s="65"/>
+      <c r="EM18" s="65"/>
+      <c r="EN18" s="65"/>
+      <c r="EO18" s="65"/>
+      <c r="EP18" s="65"/>
+      <c r="EQ18" s="64"/>
+      <c r="ER18" s="64"/>
+      <c r="ES18" s="64"/>
+      <c r="ET18" s="64"/>
+      <c r="EU18" s="64"/>
+      <c r="EV18" s="64"/>
+      <c r="EW18" s="64"/>
+      <c r="EX18" s="64"/>
+      <c r="EY18" s="64"/>
+      <c r="EZ18" s="64"/>
+      <c r="FA18" s="64"/>
+      <c r="FB18" s="64"/>
+      <c r="FC18" s="64"/>
+      <c r="FD18" s="64"/>
+      <c r="FE18" s="64"/>
+      <c r="FF18" s="64"/>
+      <c r="FG18" s="64"/>
+      <c r="FH18" s="70"/>
     </row>
-    <row r="19" spans="1:164" s="77" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="b">
+    <row r="19" spans="1:164" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="b">
         <v>0</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="69" t="s">
+      <c r="B19" s="116"/>
+      <c r="C19" s="63" t="s">
         <v>301</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71" t="s">
+      <c r="F19" s="65"/>
+      <c r="G19" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="H19" s="72" t="s">
+      <c r="H19" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="I19" s="72" t="s">
+      <c r="I19" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="J19" s="71">
+      <c r="J19" s="65">
         <v>80</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="L19" s="71" t="s">
+      <c r="L19" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="M19" s="71" t="s">
+      <c r="M19" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="N19" s="71" t="s">
+      <c r="N19" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="O19" s="71" t="s">
+      <c r="O19" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="P19" s="71" t="s">
+      <c r="P19" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="Q19" s="71" t="s">
+      <c r="Q19" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="R19" s="71" t="s">
+      <c r="R19" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="S19" s="71" t="s">
+      <c r="S19" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71">
+      <c r="T19" s="65"/>
+      <c r="U19" s="65">
         <v>11349</v>
       </c>
-      <c r="V19" s="71" t="s">
+      <c r="V19" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="W19" s="71" t="s">
+      <c r="W19" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="X19" s="71" t="s">
+      <c r="X19" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="Y19" s="71" t="s">
+      <c r="Y19" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="Z19" s="71" t="s">
+      <c r="Z19" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="AA19" s="71" t="s">
+      <c r="AA19" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71">
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65">
         <v>75008</v>
       </c>
-      <c r="AD19" s="71" t="s">
+      <c r="AD19" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="AE19" s="71" t="s">
+      <c r="AE19" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="AF19" s="71" t="s">
+      <c r="AF19" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="AG19" s="70">
+      <c r="AG19" s="64">
         <v>12345</v>
       </c>
-      <c r="AH19" s="78"/>
-      <c r="AI19" s="78" t="s">
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="AJ19" s="71"/>
-      <c r="AK19" s="78"/>
-      <c r="AL19" s="71"/>
-      <c r="AM19" s="78"/>
-      <c r="AN19" s="78"/>
-      <c r="AO19" s="78"/>
-      <c r="AP19" s="78"/>
-      <c r="AQ19" s="71"/>
-      <c r="AR19" s="71"/>
-      <c r="AS19" s="71"/>
-      <c r="AT19" s="71"/>
-      <c r="AU19" s="71"/>
-      <c r="AV19" s="74"/>
-      <c r="AW19" s="71"/>
-      <c r="AX19" s="71">
+      <c r="AJ19" s="65"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="65"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="72"/>
+      <c r="AO19" s="72"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="65"/>
+      <c r="AS19" s="65"/>
+      <c r="AT19" s="65"/>
+      <c r="AU19" s="65"/>
+      <c r="AV19" s="68"/>
+      <c r="AW19" s="65"/>
+      <c r="AX19" s="65">
         <v>9012633035</v>
       </c>
-      <c r="AY19" s="71" t="s">
+      <c r="AY19" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="AZ19" s="71" t="s">
+      <c r="AZ19" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="BA19" s="71">
+      <c r="BA19" s="65">
         <v>9012633035</v>
       </c>
-      <c r="BB19" s="71" t="s">
+      <c r="BB19" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="BC19" s="71" t="s">
+      <c r="BC19" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="BD19" s="71" t="s">
+      <c r="BD19" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="BE19" s="71">
+      <c r="BE19" s="65">
         <v>75008</v>
       </c>
-      <c r="BF19" s="71" t="s">
+      <c r="BF19" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="BG19" s="71" t="s">
+      <c r="BG19" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="BH19" s="72"/>
-      <c r="BI19" s="72" t="s">
+      <c r="BH19" s="66"/>
+      <c r="BI19" s="66" t="s">
         <v>315</v>
       </c>
-      <c r="BJ19" s="72" t="s">
+      <c r="BJ19" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="BK19" s="79"/>
-      <c r="BL19" s="78"/>
-      <c r="BM19" s="79"/>
-      <c r="BN19" s="79"/>
-      <c r="BO19" s="79"/>
-      <c r="BP19" s="78"/>
-      <c r="BQ19" s="79"/>
-      <c r="BR19" s="79"/>
-      <c r="BS19" s="79"/>
-      <c r="BT19" s="79"/>
-      <c r="BU19" s="78"/>
-      <c r="BV19" s="78"/>
-      <c r="BW19" s="71"/>
-      <c r="BX19" s="71"/>
-      <c r="BY19" s="71"/>
-      <c r="BZ19" s="71"/>
-      <c r="CA19" s="71"/>
-      <c r="CB19" s="71"/>
-      <c r="CC19" s="71"/>
-      <c r="CD19" s="71"/>
-      <c r="CE19" s="71"/>
-      <c r="CF19" s="71"/>
-      <c r="CG19" s="71"/>
-      <c r="CH19" s="71"/>
-      <c r="CI19" s="71"/>
-      <c r="CJ19" s="71"/>
-      <c r="CK19" s="71"/>
-      <c r="CL19" s="71"/>
-      <c r="CM19" s="71"/>
-      <c r="CN19" s="71"/>
-      <c r="CO19" s="71"/>
-      <c r="CP19" s="71" t="s">
+      <c r="BK19" s="73"/>
+      <c r="BL19" s="72"/>
+      <c r="BM19" s="73"/>
+      <c r="BN19" s="73"/>
+      <c r="BO19" s="73"/>
+      <c r="BP19" s="72"/>
+      <c r="BQ19" s="73"/>
+      <c r="BR19" s="73"/>
+      <c r="BS19" s="73"/>
+      <c r="BT19" s="73"/>
+      <c r="BU19" s="72"/>
+      <c r="BV19" s="72"/>
+      <c r="BW19" s="65"/>
+      <c r="BX19" s="65"/>
+      <c r="BY19" s="65"/>
+      <c r="BZ19" s="65"/>
+      <c r="CA19" s="65"/>
+      <c r="CB19" s="65"/>
+      <c r="CC19" s="65"/>
+      <c r="CD19" s="65"/>
+      <c r="CE19" s="65"/>
+      <c r="CF19" s="65"/>
+      <c r="CG19" s="65"/>
+      <c r="CH19" s="65"/>
+      <c r="CI19" s="65"/>
+      <c r="CJ19" s="65"/>
+      <c r="CK19" s="65"/>
+      <c r="CL19" s="65"/>
+      <c r="CM19" s="65"/>
+      <c r="CN19" s="65"/>
+      <c r="CO19" s="65"/>
+      <c r="CP19" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="CQ19" s="70" t="s">
+      <c r="CQ19" s="64" t="s">
         <v>288</v>
       </c>
-      <c r="CR19" s="70">
+      <c r="CR19" s="64">
         <v>12345</v>
       </c>
-      <c r="CS19" s="71" t="s">
+      <c r="CS19" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="CT19" s="70" t="s">
+      <c r="CT19" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="CU19" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CV19" s="70">
-        <v>100</v>
-      </c>
-      <c r="CW19" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="CX19" s="70">
-        <v>100</v>
-      </c>
-      <c r="CY19" s="70" t="s">
+      <c r="CU19" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="CV19" s="64">
+        <v>100</v>
+      </c>
+      <c r="CW19" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="CX19" s="64">
+        <v>100</v>
+      </c>
+      <c r="CY19" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="CZ19" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA19" s="70">
-        <v>100</v>
-      </c>
-      <c r="DB19" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DC19" s="70">
+      <c r="CZ19" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA19" s="64">
+        <v>100</v>
+      </c>
+      <c r="DB19" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC19" s="64">
         <v>25</v>
       </c>
-      <c r="DD19" s="70" t="s">
+      <c r="DD19" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="DE19" s="70" t="s">
+      <c r="DE19" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="DF19" s="70">
+      <c r="DF19" s="64">
         <v>123456789</v>
       </c>
-      <c r="DG19" s="70" t="s">
+      <c r="DG19" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="DH19" s="70"/>
-      <c r="DI19" s="70">
+      <c r="DH19" s="64"/>
+      <c r="DI19" s="64">
         <v>1</v>
       </c>
-      <c r="DJ19" s="70" t="s">
+      <c r="DJ19" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="DK19" s="71" t="s">
+      <c r="DK19" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="DL19" s="70"/>
-      <c r="DM19" s="70" t="s">
+      <c r="DL19" s="64"/>
+      <c r="DM19" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="DN19" s="71">
+      <c r="DN19" s="65">
         <v>80</v>
       </c>
-      <c r="DO19" s="70">
+      <c r="DO19" s="64">
         <v>1</v>
       </c>
-      <c r="DP19" s="70" t="s">
+      <c r="DP19" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="DQ19" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR19" s="70">
-        <v>100</v>
-      </c>
-      <c r="DS19" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="DT19" s="70">
-        <v>100</v>
-      </c>
-      <c r="DU19" s="70" t="s">
+      <c r="DQ19" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR19" s="64">
+        <v>100</v>
+      </c>
+      <c r="DS19" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT19" s="64">
+        <v>100</v>
+      </c>
+      <c r="DU19" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="DV19" s="71" t="s">
+      <c r="DV19" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="DW19" s="71" t="s">
+      <c r="DW19" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="DX19" s="71">
+      <c r="DX19" s="65">
         <v>1</v>
       </c>
-      <c r="DY19" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="DZ19" s="71">
-        <v>100</v>
-      </c>
-      <c r="EA19" s="71" t="s">
+      <c r="DY19" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="DZ19" s="65">
+        <v>100</v>
+      </c>
+      <c r="EA19" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="EB19" s="71">
+      <c r="EB19" s="65">
         <v>80</v>
       </c>
-      <c r="EC19" s="71">
+      <c r="EC19" s="65">
         <v>50</v>
       </c>
-      <c r="ED19" s="71">
+      <c r="ED19" s="65">
         <v>60</v>
       </c>
-      <c r="EE19" s="71">
+      <c r="EE19" s="65">
         <v>50</v>
       </c>
-      <c r="EF19" s="71" t="s">
+      <c r="EF19" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="EG19" s="71" t="s">
+      <c r="EG19" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="EH19" s="71" t="s">
+      <c r="EH19" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="EI19" s="71"/>
-      <c r="EJ19" s="71"/>
-      <c r="EK19" s="71"/>
-      <c r="EL19" s="71"/>
-      <c r="EM19" s="71"/>
-      <c r="EN19" s="71"/>
-      <c r="EO19" s="71"/>
-      <c r="EP19" s="71"/>
-      <c r="EQ19" s="70"/>
-      <c r="ER19" s="70"/>
-      <c r="ES19" s="70"/>
-      <c r="ET19" s="70"/>
-      <c r="EU19" s="70"/>
-      <c r="EV19" s="70"/>
-      <c r="EW19" s="70"/>
-      <c r="EX19" s="70"/>
-      <c r="EY19" s="70"/>
-      <c r="EZ19" s="70"/>
-      <c r="FA19" s="70"/>
-      <c r="FB19" s="70"/>
-      <c r="FC19" s="70"/>
-      <c r="FD19" s="70"/>
-      <c r="FE19" s="70"/>
-      <c r="FF19" s="70"/>
-      <c r="FG19" s="70"/>
-      <c r="FH19" s="76"/>
+      <c r="EI19" s="65"/>
+      <c r="EJ19" s="65"/>
+      <c r="EK19" s="65"/>
+      <c r="EL19" s="65"/>
+      <c r="EM19" s="65"/>
+      <c r="EN19" s="65"/>
+      <c r="EO19" s="65"/>
+      <c r="EP19" s="65"/>
+      <c r="EQ19" s="64"/>
+      <c r="ER19" s="64"/>
+      <c r="ES19" s="64"/>
+      <c r="ET19" s="64"/>
+      <c r="EU19" s="64"/>
+      <c r="EV19" s="64"/>
+      <c r="EW19" s="64"/>
+      <c r="EX19" s="64"/>
+      <c r="EY19" s="64"/>
+      <c r="EZ19" s="64"/>
+      <c r="FA19" s="64"/>
+      <c r="FB19" s="64"/>
+      <c r="FC19" s="64"/>
+      <c r="FD19" s="64"/>
+      <c r="FE19" s="64"/>
+      <c r="FF19" s="64"/>
+      <c r="FG19" s="64"/>
+      <c r="FH19" s="70"/>
     </row>
     <row r="20" spans="1:164" s="11" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="B20" s="63"/>
+      <c r="B20" s="116"/>
       <c r="C20" s="22" t="s">
         <v>299</v>
       </c>
@@ -9729,355 +9818,355 @@
         <v>9015551234</v>
       </c>
     </row>
-    <row r="21" spans="1:164" s="103" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="b">
+    <row r="21" spans="1:164" s="97" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="86" t="b">
         <v>0</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="93" t="s">
+      <c r="B21" s="117"/>
+      <c r="C21" s="87" t="s">
         <v>300</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="95" t="s">
+      <c r="E21" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96" t="s">
+      <c r="F21" s="90"/>
+      <c r="G21" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="H21" s="97" t="s">
+      <c r="H21" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="I21" s="97" t="s">
+      <c r="I21" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="J21" s="96">
+      <c r="J21" s="90">
         <v>30</v>
       </c>
-      <c r="K21" s="96" t="s">
+      <c r="K21" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="96" t="s">
+      <c r="L21" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="M21" s="96" t="s">
+      <c r="M21" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="N21" s="96" t="s">
+      <c r="N21" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="O21" s="96" t="s">
+      <c r="O21" s="90" t="s">
         <v>145</v>
       </c>
-      <c r="P21" s="96" t="s">
+      <c r="P21" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="Q21" s="96" t="s">
+      <c r="Q21" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="R21" s="98" t="s">
+      <c r="R21" s="92" t="s">
         <v>285</v>
       </c>
-      <c r="S21" s="98" t="s">
+      <c r="S21" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98">
+      <c r="T21" s="92"/>
+      <c r="U21" s="92">
         <v>81116</v>
       </c>
-      <c r="V21" s="98" t="s">
+      <c r="V21" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="W21" s="96" t="s">
+      <c r="W21" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="X21" s="95" t="s">
+      <c r="X21" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="Y21" s="96" t="s">
+      <c r="Y21" s="90" t="s">
         <v>146</v>
       </c>
-      <c r="Z21" s="96" t="s">
+      <c r="Z21" s="90" t="s">
         <v>281</v>
       </c>
-      <c r="AA21" s="96" t="s">
+      <c r="AA21" s="90" t="s">
         <v>277</v>
       </c>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="99" t="s">
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="93" t="s">
         <v>282</v>
       </c>
-      <c r="AD21" s="96" t="s">
+      <c r="AD21" s="90" t="s">
         <v>278</v>
       </c>
-      <c r="AE21" s="96" t="s">
+      <c r="AE21" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="AF21" s="96" t="s">
+      <c r="AF21" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="AG21" s="94">
+      <c r="AG21" s="88">
         <v>12345</v>
       </c>
-      <c r="AH21" s="96"/>
-      <c r="AI21" s="96"/>
-      <c r="AJ21" s="96"/>
-      <c r="AK21" s="96"/>
-      <c r="AL21" s="96"/>
-      <c r="AM21" s="96"/>
-      <c r="AN21" s="96"/>
-      <c r="AO21" s="96"/>
-      <c r="AP21" s="96"/>
-      <c r="AQ21" s="96"/>
-      <c r="AR21" s="96"/>
-      <c r="AS21" s="96"/>
-      <c r="AT21" s="96"/>
-      <c r="AU21" s="96"/>
-      <c r="AV21" s="96"/>
-      <c r="AW21" s="96"/>
-      <c r="AX21" s="96"/>
-      <c r="AY21" s="96"/>
-      <c r="AZ21" s="96"/>
-      <c r="BA21" s="96"/>
-      <c r="BB21" s="96"/>
-      <c r="BC21" s="96"/>
-      <c r="BD21" s="96"/>
-      <c r="BE21" s="100"/>
-      <c r="BF21" s="96"/>
-      <c r="BG21" s="96"/>
-      <c r="BH21" s="97"/>
-      <c r="BI21" s="97"/>
-      <c r="BJ21" s="97"/>
-      <c r="BK21" s="96"/>
-      <c r="BL21" s="96"/>
-      <c r="BM21" s="96"/>
-      <c r="BN21" s="96"/>
-      <c r="BO21" s="96"/>
-      <c r="BP21" s="96"/>
-      <c r="BQ21" s="96"/>
-      <c r="BR21" s="96"/>
-      <c r="BS21" s="96"/>
-      <c r="BT21" s="96"/>
-      <c r="BU21" s="96"/>
-      <c r="BV21" s="96"/>
-      <c r="BW21" s="96"/>
-      <c r="BX21" s="96"/>
-      <c r="BY21" s="96"/>
-      <c r="BZ21" s="96"/>
-      <c r="CA21" s="96"/>
-      <c r="CB21" s="96"/>
-      <c r="CC21" s="96"/>
-      <c r="CD21" s="96"/>
-      <c r="CE21" s="96"/>
-      <c r="CF21" s="96"/>
-      <c r="CG21" s="96"/>
-      <c r="CH21" s="96"/>
-      <c r="CI21" s="96"/>
-      <c r="CJ21" s="96"/>
-      <c r="CK21" s="96"/>
-      <c r="CL21" s="96"/>
-      <c r="CM21" s="96"/>
-      <c r="CN21" s="96"/>
-      <c r="CO21" s="96"/>
-      <c r="CP21" s="96" t="s">
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="90"/>
+      <c r="AJ21" s="90"/>
+      <c r="AK21" s="90"/>
+      <c r="AL21" s="90"/>
+      <c r="AM21" s="90"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AP21" s="90"/>
+      <c r="AQ21" s="90"/>
+      <c r="AR21" s="90"/>
+      <c r="AS21" s="90"/>
+      <c r="AT21" s="90"/>
+      <c r="AU21" s="90"/>
+      <c r="AV21" s="90"/>
+      <c r="AW21" s="90"/>
+      <c r="AX21" s="90"/>
+      <c r="AY21" s="90"/>
+      <c r="AZ21" s="90"/>
+      <c r="BA21" s="90"/>
+      <c r="BB21" s="90"/>
+      <c r="BC21" s="90"/>
+      <c r="BD21" s="90"/>
+      <c r="BE21" s="94"/>
+      <c r="BF21" s="90"/>
+      <c r="BG21" s="90"/>
+      <c r="BH21" s="91"/>
+      <c r="BI21" s="91"/>
+      <c r="BJ21" s="91"/>
+      <c r="BK21" s="90"/>
+      <c r="BL21" s="90"/>
+      <c r="BM21" s="90"/>
+      <c r="BN21" s="90"/>
+      <c r="BO21" s="90"/>
+      <c r="BP21" s="90"/>
+      <c r="BQ21" s="90"/>
+      <c r="BR21" s="90"/>
+      <c r="BS21" s="90"/>
+      <c r="BT21" s="90"/>
+      <c r="BU21" s="90"/>
+      <c r="BV21" s="90"/>
+      <c r="BW21" s="90"/>
+      <c r="BX21" s="90"/>
+      <c r="BY21" s="90"/>
+      <c r="BZ21" s="90"/>
+      <c r="CA21" s="90"/>
+      <c r="CB21" s="90"/>
+      <c r="CC21" s="90"/>
+      <c r="CD21" s="90"/>
+      <c r="CE21" s="90"/>
+      <c r="CF21" s="90"/>
+      <c r="CG21" s="90"/>
+      <c r="CH21" s="90"/>
+      <c r="CI21" s="90"/>
+      <c r="CJ21" s="90"/>
+      <c r="CK21" s="90"/>
+      <c r="CL21" s="90"/>
+      <c r="CM21" s="90"/>
+      <c r="CN21" s="90"/>
+      <c r="CO21" s="90"/>
+      <c r="CP21" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="CQ21" s="94" t="s">
+      <c r="CQ21" s="88" t="s">
         <v>288</v>
       </c>
-      <c r="CR21" s="94">
+      <c r="CR21" s="88">
         <v>12345</v>
       </c>
-      <c r="CS21" s="98" t="s">
+      <c r="CS21" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="CT21" s="94" t="s">
+      <c r="CT21" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="CU21" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="CV21" s="94">
-        <v>100</v>
-      </c>
-      <c r="CW21" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="CX21" s="94">
-        <v>100</v>
-      </c>
-      <c r="CY21" s="94" t="s">
+      <c r="CU21" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="CV21" s="88">
+        <v>100</v>
+      </c>
+      <c r="CW21" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="CX21" s="88">
+        <v>100</v>
+      </c>
+      <c r="CY21" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="CZ21" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="DA21" s="94">
-        <v>100</v>
-      </c>
-      <c r="DB21" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="DC21" s="94">
+      <c r="CZ21" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="DA21" s="88">
+        <v>100</v>
+      </c>
+      <c r="DB21" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="DC21" s="88">
         <v>25</v>
       </c>
-      <c r="DD21" s="94" t="s">
+      <c r="DD21" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="DE21" s="94" t="s">
+      <c r="DE21" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="DF21" s="94">
+      <c r="DF21" s="88">
         <v>123456789</v>
       </c>
-      <c r="DG21" s="94" t="s">
+      <c r="DG21" s="88" t="s">
         <v>276</v>
       </c>
-      <c r="DH21" s="94"/>
-      <c r="DI21" s="94">
+      <c r="DH21" s="88"/>
+      <c r="DI21" s="88">
         <v>1</v>
       </c>
-      <c r="DJ21" s="94" t="s">
+      <c r="DJ21" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="DK21" s="98" t="s">
+      <c r="DK21" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="DL21" s="94"/>
-      <c r="DM21" s="94" t="s">
+      <c r="DL21" s="88"/>
+      <c r="DM21" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="DN21" s="96">
+      <c r="DN21" s="90">
         <v>30</v>
       </c>
-      <c r="DO21" s="94">
+      <c r="DO21" s="88">
         <v>1</v>
       </c>
-      <c r="DP21" s="94" t="s">
+      <c r="DP21" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="DQ21" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR21" s="94">
-        <v>100</v>
-      </c>
-      <c r="DS21" s="94" t="s">
-        <v>151</v>
-      </c>
-      <c r="DT21" s="94">
-        <v>100</v>
-      </c>
-      <c r="DU21" s="94" t="s">
+      <c r="DQ21" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="DR21" s="88">
+        <v>100</v>
+      </c>
+      <c r="DS21" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="DT21" s="88">
+        <v>100</v>
+      </c>
+      <c r="DU21" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="DV21" s="96" t="s">
+      <c r="DV21" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="DW21" s="96" t="s">
+      <c r="DW21" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="DX21" s="96">
+      <c r="DX21" s="90">
         <v>1</v>
       </c>
-      <c r="DY21" s="96" t="s">
-        <v>151</v>
-      </c>
-      <c r="DZ21" s="96">
-        <v>100</v>
-      </c>
-      <c r="EA21" s="96" t="s">
+      <c r="DY21" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="DZ21" s="90">
+        <v>100</v>
+      </c>
+      <c r="EA21" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="EB21" s="96">
+      <c r="EB21" s="90">
         <v>30</v>
       </c>
-      <c r="EC21" s="96">
+      <c r="EC21" s="90">
         <v>25</v>
       </c>
-      <c r="ED21" s="96">
+      <c r="ED21" s="90">
         <v>30</v>
       </c>
-      <c r="EE21" s="96">
+      <c r="EE21" s="90">
         <v>20</v>
       </c>
-      <c r="EF21" s="96" t="s">
+      <c r="EF21" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="EG21" s="96" t="s">
+      <c r="EG21" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="EH21" s="96" t="s">
+      <c r="EH21" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="EI21" s="96" t="s">
+      <c r="EI21" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="EJ21" s="96" t="s">
+      <c r="EJ21" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="EK21" s="96"/>
-      <c r="EL21" s="96"/>
-      <c r="EM21" s="96"/>
-      <c r="EN21" s="96"/>
-      <c r="EO21" s="101" t="s">
+      <c r="EK21" s="90"/>
+      <c r="EL21" s="90"/>
+      <c r="EM21" s="90"/>
+      <c r="EN21" s="90"/>
+      <c r="EO21" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="EP21" s="101">
+      <c r="EP21" s="95">
         <v>0</v>
       </c>
-      <c r="EQ21" s="101"/>
-      <c r="ER21" s="101" t="s">
+      <c r="EQ21" s="95"/>
+      <c r="ER21" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="ES21" s="101">
+      <c r="ES21" s="95">
         <v>1</v>
       </c>
-      <c r="ET21" s="101">
+      <c r="ET21" s="95">
         <v>1888</v>
       </c>
-      <c r="EU21" s="101">
+      <c r="EU21" s="95">
         <v>1</v>
       </c>
-      <c r="EV21" s="101" t="s">
+      <c r="EV21" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="EW21" s="101">
+      <c r="EW21" s="95">
         <v>0</v>
       </c>
-      <c r="EX21" s="101">
+      <c r="EX21" s="95">
         <v>680</v>
       </c>
-      <c r="EY21" s="101" t="s">
+      <c r="EY21" s="95" t="s">
         <v>195</v>
       </c>
-      <c r="EZ21" s="101">
+      <c r="EZ21" s="95">
         <v>6.1</v>
       </c>
-      <c r="FA21" s="101">
+      <c r="FA21" s="95">
         <v>1</v>
       </c>
-      <c r="FB21" s="101" t="s">
+      <c r="FB21" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="FC21" s="101" t="s">
+      <c r="FC21" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="FD21" s="101" t="s">
+      <c r="FD21" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="FE21" s="101" t="s">
+      <c r="FE21" s="95" t="s">
         <v>198</v>
       </c>
-      <c r="FF21" s="94" t="s">
+      <c r="FF21" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="FG21" s="94">
+      <c r="FG21" s="88">
         <v>5</v>
       </c>
-      <c r="FH21" s="102">
+      <c r="FH21" s="96">
         <v>9015551234</v>
       </c>
     </row>
@@ -10085,7 +10174,7 @@
       <c r="A22" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="118" t="s">
         <v>311</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -10443,7 +10532,7 @@
       <c r="A23" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="66"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="42" t="s">
         <v>309</v>
       </c>
@@ -10753,7 +10842,7 @@
       <c r="A24" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="66"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="42" t="s">
         <v>253</v>
       </c>
@@ -11057,7 +11146,7 @@
       <c r="A25" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="B25" s="66"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="42" t="s">
         <v>257</v>
       </c>
@@ -11395,7 +11484,7 @@
       <c r="A26" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="B26" s="66"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="42" t="s">
         <v>258</v>
       </c>
@@ -11711,7 +11800,7 @@
       <c r="A27" s="61" t="b">
         <v>1</v>
       </c>
-      <c r="B27" s="67"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="48" t="s">
         <v>263</v>
       </c>
